--- a/Caribou_DemographicData_Worksheets.xlsx
+++ b/Caribou_DemographicData_Worksheets.xlsx
@@ -8,18 +8,17 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Ian\Clients\EricNeilson\Caribou_LandTrendR_R\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D345DA43-8F17-4C3D-AFFF-90FD0E262BC5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BE337566-5921-4459-A010-BEB1DEFC2669}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2295" yWindow="2295" windowWidth="21600" windowHeight="11505" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Caribou_DemographicData_March 2" sheetId="1" r:id="rId1"/>
     <sheet name="New Literature Review" sheetId="2" r:id="rId2"/>
-    <sheet name="Caribou range polygons" sheetId="3" r:id="rId3"/>
-    <sheet name="Lit review notes " sheetId="4" r:id="rId4"/>
+    <sheet name="Lit review notes " sheetId="4" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'New Literature Review'!$A$1:$N$114</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'New Literature Review'!$A$1:$N$115</definedName>
     <definedName name="Z_DDF332C4_B375_45B2_87DF_0444D13E4F0C_.wvu.FilterData" localSheetId="1" hidden="1">'New Literature Review'!$A$1:$N$91</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
@@ -43,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3590" uniqueCount="1607">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3196" uniqueCount="1413">
   <si>
     <t>Doc_ID</t>
   </si>
@@ -4027,9 +4026,6 @@
     <t xml:space="preserve">Collared, but no demographic data. Probably the same as </t>
   </si>
   <si>
-    <t>overlaps with Wittmer 2005</t>
-  </si>
-  <si>
     <t>https://doi.org/10.1371/journal.pone.0258136</t>
   </si>
   <si>
@@ -4084,36 +4080,6 @@
     <t>Has great summary table - unclear why sampling year is different from Wittmer 2005/2007. Seems to be one big study</t>
   </si>
   <si>
-    <t>PolygonID</t>
-  </si>
-  <si>
-    <t>First Measurement Year</t>
-  </si>
-  <si>
-    <t>Last Measurement Year</t>
-  </si>
-  <si>
-    <t>AdultFemaleSurvivalRate</t>
-  </si>
-  <si>
-    <t>CalfCow</t>
-  </si>
-  <si>
-    <t>Note</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Courtois et al. </t>
-  </si>
-  <si>
-    <t>Manic</t>
-  </si>
-  <si>
-    <t>Manou</t>
-  </si>
-  <si>
-    <t>Pipmu</t>
-  </si>
-  <si>
     <t xml:space="preserve">Search terms </t>
   </si>
   <si>
@@ -4144,387 +4110,21 @@
     <t>at this point there were no relevant previously unseen studies among results</t>
   </si>
   <si>
-    <t>Wittmer15_Purcells_South</t>
-  </si>
-  <si>
-    <t>Purcells South</t>
-  </si>
-  <si>
-    <t>Nakusp</t>
-  </si>
-  <si>
-    <t>Wittmer15_FrisbyBoulder</t>
-  </si>
-  <si>
-    <t>Wittmer15_Nakusp</t>
-  </si>
-  <si>
-    <t>Wittmer15_ColumbiaSouth</t>
-  </si>
-  <si>
-    <t>Wittmer15_ColumbiaNorth</t>
-  </si>
-  <si>
-    <t>Wittmer15_Groundhog</t>
-  </si>
-  <si>
-    <t>Wittmer15_WellsGray</t>
-  </si>
-  <si>
-    <t>Wittmer15_Barkerville</t>
-  </si>
-  <si>
-    <t>Wittmer15_NorthCaribooMtn</t>
-  </si>
-  <si>
-    <t>Wittmer15_HartRanges</t>
-  </si>
-  <si>
-    <t>Frisby Boulder</t>
-  </si>
-  <si>
-    <t>Columbia South</t>
-  </si>
-  <si>
-    <t>Columbia North</t>
-  </si>
-  <si>
-    <t>Wells Gray</t>
-  </si>
-  <si>
-    <t>Groundhog</t>
-  </si>
-  <si>
-    <t>Barkerville</t>
-  </si>
-  <si>
-    <t>North Cariboo Mtn</t>
-  </si>
-  <si>
-    <t>Hart</t>
-  </si>
-  <si>
-    <t>Measured in 1988-1991 and then 2004 - but given as one estimate</t>
-  </si>
-  <si>
-    <t>for all Wittmer, female survival is the corrected estimate from 2010 paper - viability of mountain caribou…</t>
-  </si>
-  <si>
     <t>Complete</t>
   </si>
   <si>
     <t>yes</t>
   </si>
   <si>
-    <t>Courtois91_Manic</t>
-  </si>
-  <si>
-    <t>Courtois91_Manou</t>
-  </si>
-  <si>
-    <t>Courtois91_Pipmu</t>
-  </si>
-  <si>
-    <t>Courtois97_Manicougan</t>
-  </si>
-  <si>
-    <t xml:space="preserve">bug Eric </t>
-  </si>
-  <si>
-    <t>Manicougan - unsure if this is a herd or the area</t>
-  </si>
-  <si>
-    <t>interpret from graph</t>
-  </si>
-  <si>
-    <t>very low-res figure</t>
-  </si>
-  <si>
-    <t>Digitization_Scale</t>
-  </si>
-  <si>
-    <t>Dalerum67_RedEarth</t>
-  </si>
-  <si>
-    <t>Dalerum67_ESAR</t>
-  </si>
-  <si>
-    <t>Dalerum67_CaribouMountains</t>
-  </si>
-  <si>
-    <t>East Side Athabasca River</t>
-  </si>
-  <si>
-    <t>Red Earth</t>
-  </si>
-  <si>
-    <t>Caribou Mountains</t>
-  </si>
-  <si>
-    <t>Fryxell et al.</t>
-  </si>
-  <si>
-    <t>Fryxell103_Nakima</t>
-  </si>
-  <si>
-    <t>Fryxell103_PickleLake</t>
-  </si>
-  <si>
-    <t>Gullickson71_SouthNahanni</t>
-  </si>
-  <si>
-    <t>South Nahanni Yukon and NWT</t>
-  </si>
-  <si>
-    <t xml:space="preserve">annual meaurements, see formula. I'm confused how 2/18 dying = survival rate of 0.6667 in year three. Maybe because a cumulative 7 out of 24 died? But that wouldn't make it an annual rate. </t>
-  </si>
-  <si>
-    <t>Gullickson and Manseau</t>
-  </si>
-  <si>
-    <t>Hervieux et al</t>
-  </si>
-  <si>
-    <t>Hervieux87_Chinchaga</t>
-  </si>
-  <si>
-    <t>Hervieux87_ColdLakesAB</t>
-  </si>
-  <si>
-    <t>Hervieux87_CaribouMountains</t>
-  </si>
-  <si>
-    <t>Hervieux87_ESAR</t>
-  </si>
-  <si>
-    <t>Hervieux87_LittleSmoky</t>
-  </si>
-  <si>
-    <t>Hervieux87_RedEarth</t>
-  </si>
-  <si>
-    <t>Hervieux87_Richardson</t>
-  </si>
-  <si>
-    <t>Hervieux87_WSAR</t>
-  </si>
-  <si>
-    <t>Hervieux87_Yates</t>
-  </si>
-  <si>
-    <t>Hervieux87_Narraway</t>
-  </si>
-  <si>
-    <t>Hervieux87_ALaPeche</t>
-  </si>
-  <si>
-    <t>Hervieux87_RedRock</t>
-  </si>
-  <si>
     <t>This may be duplicating Hervieux et al (same authors, same area)</t>
   </si>
   <si>
-    <t>from fig 4  - a bit illegible</t>
-  </si>
-  <si>
-    <t>from fig 4 - a bit illegible</t>
-  </si>
-  <si>
     <t>dupl of Hervieux</t>
   </si>
   <si>
-    <t>Hettinga83_LowerNI</t>
-  </si>
-  <si>
-    <t>Hettinga83_UpperNI</t>
-  </si>
-  <si>
-    <t>Hettinga et al.</t>
-  </si>
-  <si>
-    <t>Lower part of North Interlake</t>
-  </si>
-  <si>
-    <t>Upper part of North Interlake</t>
-  </si>
-  <si>
-    <t>lambda assumes male + female (combined + separate estimates given)</t>
-  </si>
-  <si>
-    <t>Ellington26_NP</t>
-  </si>
-  <si>
-    <t>Ellington26_LP</t>
-  </si>
-  <si>
-    <t>Ellington26_MR</t>
-  </si>
-  <si>
-    <t>Northern Peninsula</t>
-  </si>
-  <si>
-    <t>La Poile</t>
-  </si>
-  <si>
-    <t>Middle Ridge</t>
-  </si>
-  <si>
-    <t>Eric to review</t>
-  </si>
-  <si>
-    <t>James20_Athabasca</t>
-  </si>
-  <si>
-    <t>James and Stuart-Smith</t>
-  </si>
-  <si>
-    <t>ESAR and WSAR</t>
-  </si>
-  <si>
-    <t>focus was predation but reported all deaths</t>
-  </si>
-  <si>
-    <t>Johnson32_Quintette</t>
-  </si>
-  <si>
-    <t>Quintette</t>
-  </si>
-  <si>
-    <t>Johnson32_Narraway</t>
-  </si>
-  <si>
-    <t>Narraway</t>
-  </si>
-  <si>
-    <t>Johnson32_Bear</t>
-  </si>
-  <si>
-    <t>Johnson32_BurntPine</t>
-  </si>
-  <si>
-    <t>Johnson32_Moberly</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Bearhole-Redwillow </t>
-  </si>
-  <si>
-    <t>Burnt Pine</t>
-  </si>
-  <si>
-    <t>Moberly</t>
-  </si>
-  <si>
-    <t>Mahoney101_CornerBrooks</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Corner Brooks </t>
-  </si>
-  <si>
-    <t>Mortality</t>
-  </si>
-  <si>
-    <t>has annual rates too</t>
-  </si>
-  <si>
-    <t>Pregnancy</t>
-  </si>
-  <si>
-    <t>McLoughlin86_SK1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">McLoughlin et al. </t>
-  </si>
-  <si>
-    <t>0.79*</t>
-  </si>
-  <si>
-    <t xml:space="preserve">*calving rate? Same as pregnancy rate? Also has calf survival (0.46) and of 30 female caribou, 2 died before calving period. </t>
-  </si>
-  <si>
-    <t>Pinard96_GrandsJardins</t>
-  </si>
-  <si>
-    <t>Reintroduced to Grands Jardins</t>
-  </si>
-  <si>
     <t xml:space="preserve">see Boulet et al </t>
   </si>
   <si>
-    <t>Rudolph98_Nottaway</t>
-  </si>
-  <si>
-    <t>Rudolph et al.</t>
-  </si>
-  <si>
-    <t>Nottaway Range - some dipsy doodles I ignored</t>
-  </si>
-  <si>
-    <t>table 3 is a bit bizarre. Check with Eric. Survival rate is unclear whether female or all</t>
-  </si>
-  <si>
-    <t>Rudolph98_Assinica</t>
-  </si>
-  <si>
-    <t>Assinica</t>
-  </si>
-  <si>
-    <t xml:space="preserve">table 3 assinica is listed twice? With different values for survival… </t>
-  </si>
-  <si>
-    <t>Rudolph98_Temiscamie</t>
-  </si>
-  <si>
-    <t>Temiscamie</t>
-  </si>
-  <si>
-    <t>StuartSmith79_ESAR</t>
-  </si>
-  <si>
-    <t>StuartSmith79_WSAR</t>
-  </si>
-  <si>
-    <t>Western Side Athabasca River</t>
-  </si>
-  <si>
-    <t>Eastern Side Athabasca River</t>
-  </si>
-  <si>
-    <t xml:space="preserve">They only partially report parameters by study area. Surivval rate is for all animals - but females died at a lower rate (5%/year vs 14%/year, with 9/65 caribou male).   </t>
-  </si>
-  <si>
-    <t>They only partially report parameters by study area. Surivval rate is for all animals - but females died at a lower rate (5%/year vs 14%/year, with 9/65 caribou male).  Calfcow is average of two years. Not sure that is correct</t>
-  </si>
-  <si>
-    <t xml:space="preserve">This is the same data as Fryxel et al 2020, but with one added study area. </t>
-  </si>
-  <si>
-    <t>must confirm whether 2014 is end date or 2013</t>
-  </si>
-  <si>
-    <t>Walker64_PickleLake</t>
-  </si>
-  <si>
-    <t>Walker64_Nakima</t>
-  </si>
-  <si>
-    <t>Walker64_Cochrane</t>
-  </si>
-  <si>
-    <t>Kinloch</t>
-  </si>
-  <si>
-    <t>Nipigon</t>
-  </si>
-  <si>
-    <t>Kesagami</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Kinloch </t>
-  </si>
-  <si>
-    <t>Also has neonatal mortality and parturition rate</t>
-  </si>
-  <si>
     <t>Caribou Manitoba</t>
   </si>
   <si>
@@ -4558,54 +4158,9 @@
     <t>see Wittmer 2007</t>
   </si>
   <si>
-    <t>Brown112_Wabowden</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Wabowden </t>
-  </si>
-  <si>
     <t>too old?</t>
   </si>
   <si>
-    <t>Mahoney80_LaPoile</t>
-  </si>
-  <si>
-    <t>Mahoney80_GreyRiver</t>
-  </si>
-  <si>
-    <t>Mahoney80_SandyLake</t>
-  </si>
-  <si>
-    <t>Mahoney80_PotHill</t>
-  </si>
-  <si>
-    <t>Mahoney80_MiddleRidge</t>
-  </si>
-  <si>
-    <t>Mahoney80_Gaff</t>
-  </si>
-  <si>
-    <t>Gaff Topsails</t>
-  </si>
-  <si>
-    <t>Grey River</t>
-  </si>
-  <si>
-    <t>Sandy Lake</t>
-  </si>
-  <si>
-    <t>Pot Hill</t>
-  </si>
-  <si>
-    <t>Lapoile</t>
-  </si>
-  <si>
-    <t>population estimates but methods varied…</t>
-  </si>
-  <si>
-    <t>no remeasurement. Delete?</t>
-  </si>
-  <si>
     <t>duplicate of Hervieux?</t>
   </si>
   <si>
@@ -4633,27 +4188,9 @@
     <t>mortality, calf cow</t>
   </si>
   <si>
-    <t>Seip113_WellsGray</t>
-  </si>
-  <si>
-    <t>Seip113_Quesnel</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Wells Gray </t>
-  </si>
-  <si>
-    <t>Quesnel Lake</t>
-  </si>
-  <si>
     <t>Quesnel range derived from 1992 report using winter and summer range figuers</t>
   </si>
   <si>
-    <t>Digitized liberally from figure 9. Calf cow reported in October and June and is complicated</t>
-  </si>
-  <si>
-    <t>Digitized from Seip 1992 Wildlife Bulletin report. Calf:cow is the sum of total column in table 1 (ie with wolves, without, and reduced wolves)</t>
-  </si>
-  <si>
     <t>Feeding site selection by woodland caribou in north-central British Columbia</t>
   </si>
   <si>
@@ -4669,48 +4206,6 @@
     <t>torngat are not woodland</t>
   </si>
   <si>
-    <t>Rettie92_ClarkeLake</t>
-  </si>
-  <si>
-    <t>Rettie92_NemeibenLake</t>
-  </si>
-  <si>
-    <t>Rettie92_MossyRiver</t>
-  </si>
-  <si>
-    <t>Rettie92_MontrealLake</t>
-  </si>
-  <si>
-    <t>Rettie92_WeyakwinLake</t>
-  </si>
-  <si>
-    <t>Clarke Lake</t>
-  </si>
-  <si>
-    <t>Nemeiben Lake</t>
-  </si>
-  <si>
-    <t>Mossy River</t>
-  </si>
-  <si>
-    <t>Montreal Lake</t>
-  </si>
-  <si>
-    <t>Weyakwin Lake</t>
-  </si>
-  <si>
-    <t>earliest measurements seem to vary between 1992 (pregnancy), 1993 (survival) and 1994 (calf:cow)</t>
-  </si>
-  <si>
-    <t>earliest measurements seem to vary between 1992 (pregnancy), 1993 (survival) and 1994 (calf:cow). Ian calculated lambda - SD is very large and lambda not sig diff from 1</t>
-  </si>
-  <si>
-    <t>Gustine40_BesaProphet</t>
-  </si>
-  <si>
-    <t>Greater Besa-Prophet area of Muskwa-Kechika</t>
-  </si>
-  <si>
     <t>not a target population</t>
   </si>
   <si>
@@ -4741,54 +4236,6 @@
     <t xml:space="preserve">appendix appears to track individual caribou and mortalities, unsure if rate possible </t>
   </si>
   <si>
-    <t>Culling115_Chinchaga</t>
-  </si>
-  <si>
-    <t>this does not include Alberta portion. With Alberta, ratio is 33.3, much higher!</t>
-  </si>
-  <si>
-    <t>Culling115_SS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Chinchaga BC </t>
-  </si>
-  <si>
-    <t>Snake-Sahtaneh</t>
-  </si>
-  <si>
-    <t>Culling115_Calendar</t>
-  </si>
-  <si>
-    <t>Culling115_Maxhamish</t>
-  </si>
-  <si>
-    <t>Culling115_Prophet</t>
-  </si>
-  <si>
-    <t>Culling115_Parker</t>
-  </si>
-  <si>
-    <t>Culling115_FtNelson</t>
-  </si>
-  <si>
-    <t>Fort Nelson</t>
-  </si>
-  <si>
-    <t>Maxhamish</t>
-  </si>
-  <si>
-    <t>Parker</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Calendar BC </t>
-  </si>
-  <si>
-    <t>Prophet BC</t>
-  </si>
-  <si>
-    <t>Need Hervieux CLSK</t>
-  </si>
-  <si>
     <t>does not present demographic data</t>
   </si>
   <si>
@@ -4807,15 +4254,6 @@
     <t>1988-2015</t>
   </si>
   <si>
-    <t>Frenette116_McGerrigle</t>
-  </si>
-  <si>
-    <t>Frenette116_Logan</t>
-  </si>
-  <si>
-    <t>Frenette116_Albert</t>
-  </si>
-  <si>
     <t>boreal caribou British Columbia</t>
   </si>
   <si>
@@ -4828,42 +4266,12 @@
     <t xml:space="preserve">found some grey literature, specifically </t>
   </si>
   <si>
-    <t>McGerrigle</t>
-  </si>
-  <si>
-    <t>Albert</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Logan </t>
-  </si>
-  <si>
-    <t>Predator Control</t>
-  </si>
-  <si>
-    <t>Unconfirmed</t>
-  </si>
-  <si>
-    <t xml:space="preserve">calf:cow is available for all 3 polys combined, but it must be interpreted from figure 2.3. Appears  to be roughly 0.3,  interannual variance seems to increase over time. </t>
-  </si>
-  <si>
     <t>survival</t>
   </si>
   <si>
     <t>Covers three 'periods' of monitoring</t>
   </si>
   <si>
-    <t>2004 measurement is from separate report</t>
-  </si>
-  <si>
-    <t>this does not include Alberta portions, which is correct wrt polygon. 2004 measurement is from separate report</t>
-  </si>
-  <si>
-    <t>this was deemed to be a separate range after 2004, hence no earlier data</t>
-  </si>
-  <si>
-    <t>RangeDescription</t>
-  </si>
-  <si>
     <t>DocID</t>
   </si>
   <si>
@@ -4879,20 +4287,26 @@
     <t>Original_Lit_Review</t>
   </si>
   <si>
-    <t>Publication_Year</t>
-  </si>
-  <si>
-    <t>Hervieux87_Bistcho</t>
+    <t>Population dynamics of the endangered mountain ecotype of woodland caribou (Rangifer tarandus caribou) in British Columbia, Canada</t>
+  </si>
+  <si>
+    <t>Lambda, female survival</t>
+  </si>
+  <si>
+    <t>Same data as Wittmer 2005, 2007, and 2010. Expanded on the estimates of lambda</t>
+  </si>
+  <si>
+    <t>https://cdnsciencepub.com/doi/10.1139/z05-034</t>
+  </si>
+  <si>
+    <t>overlaps with Wittmer 2005 - I actually used Wittmer (2005b) as the study area, as the figure has the most detail</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
-  <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="0.000"/>
-  </numFmts>
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -4918,17 +4332,10 @@
       <name val="Arial"/>
     </font>
     <font>
+      <u/>
       <sz val="10"/>
-      <color rgb="FF000000"/>
+      <color theme="10"/>
       <name val="Arial"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color theme="1"/>
-      <name val="Arial"/>
-      <family val="2"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -4992,20 +4399,17 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
@@ -5016,9 +4420,10 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="2">
@@ -5070,8 +4475,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table1" displayName="Table1" ref="A1:O114" totalsRowShown="0" headerRowDxfId="1" tableBorderDxfId="0">
-  <autoFilter ref="A1:O114" xr:uid="{00000000-0009-0000-0100-000001000000}">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table1" displayName="Table1" ref="A1:O115" totalsRowShown="0" headerRowDxfId="1" tableBorderDxfId="0">
+  <autoFilter ref="A1:O115" xr:uid="{00000000-0009-0000-0100-000001000000}">
     <filterColumn colId="14">
       <filters blank="1">
         <filter val="duplicate"/>
@@ -5084,8 +4489,8 @@
       </filters>
     </filterColumn>
   </autoFilter>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:O113">
-    <sortCondition ref="A1:A113"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:O115">
+    <sortCondition ref="A1:A115"/>
   </sortState>
   <tableColumns count="15">
     <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="DocID"/>
@@ -5311,8 +4716,8 @@
   </sheetPr>
   <dimension ref="A1:AC77"/>
   <sheetViews>
-    <sheetView topLeftCell="A58" workbookViewId="0">
-      <selection activeCell="T78" sqref="T78"/>
+    <sheetView topLeftCell="A37" workbookViewId="0">
+      <selection activeCell="D78" sqref="D78"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -11970,6 +11375,9 @@
     <hyperlink ref="Q77" r:id="rId72" xr:uid="{00000000-0004-0000-0000-000047000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter>
+    <oddHeader>&amp;R&amp;"Calibri"&amp;12&amp;K000000 UNCLASSIFIED - NON CLASSIFIÉ&amp;1#_x000D_</oddHeader>
+  </headerFooter>
 </worksheet>
 </file>
 
@@ -11978,11 +11386,11 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:O114"/>
+  <dimension ref="A1:O115"/>
   <sheetViews>
-    <sheetView topLeftCell="F1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A96" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="N109" sqref="N109"/>
+    <sheetView topLeftCell="C1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A92" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="K115" sqref="K115"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="12.95" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -12000,19 +11408,19 @@
     <col min="11" max="11" width="25.140625" customWidth="1"/>
     <col min="12" max="12" width="19.140625" customWidth="1"/>
     <col min="13" max="13" width="24.85546875" customWidth="1"/>
-    <col min="14" max="14" width="37.28515625" style="6" customWidth="1"/>
+    <col min="14" max="14" width="37.28515625" style="3" customWidth="1"/>
     <col min="15" max="15" width="25.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:15" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>1600</v>
+        <v>1403</v>
       </c>
       <c r="B1" t="s">
         <v>3</v>
       </c>
       <c r="C1" t="s">
-        <v>1604</v>
+        <v>1407</v>
       </c>
       <c r="D1" t="s">
         <v>4</v>
@@ -12027,10 +11435,10 @@
         <v>8</v>
       </c>
       <c r="H1" t="s">
-        <v>1601</v>
+        <v>1404</v>
       </c>
       <c r="I1" t="s">
-        <v>1603</v>
+        <v>1406</v>
       </c>
       <c r="J1" t="s">
         <v>1033</v>
@@ -12042,13 +11450,13 @@
         <v>1035</v>
       </c>
       <c r="M1" t="s">
-        <v>1602</v>
+        <v>1405</v>
       </c>
       <c r="N1" t="s">
         <v>1036</v>
       </c>
       <c r="O1" t="s">
-        <v>1382</v>
+        <v>1349</v>
       </c>
     </row>
     <row r="2" spans="1:15" ht="12.75" x14ac:dyDescent="0.2">
@@ -12613,10 +12021,10 @@
         <v>1080</v>
       </c>
       <c r="N16" t="s">
-        <v>1321</v>
+        <v>1412</v>
       </c>
       <c r="O16" t="s">
-        <v>1383</v>
+        <v>1350</v>
       </c>
     </row>
     <row r="17" spans="1:15" ht="12.75" x14ac:dyDescent="0.2">
@@ -12815,7 +12223,7 @@
         <v>1229</v>
       </c>
       <c r="O21" t="s">
-        <v>1383</v>
+        <v>1350</v>
       </c>
     </row>
     <row r="22" spans="1:15" ht="12.75" x14ac:dyDescent="0.2">
@@ -13043,7 +12451,7 @@
         <v>1164</v>
       </c>
       <c r="O27" t="s">
-        <v>1383</v>
+        <v>1350</v>
       </c>
     </row>
     <row r="28" spans="1:15" ht="12.75" x14ac:dyDescent="0.2">
@@ -13277,14 +12685,14 @@
         <v>1231</v>
       </c>
       <c r="O33" t="s">
-        <v>1383</v>
+        <v>1350</v>
       </c>
     </row>
     <row r="34" spans="1:15" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A34" s="8">
+      <c r="A34" s="4">
         <v>33</v>
       </c>
-      <c r="B34" s="9" t="s">
+      <c r="B34" s="5" t="s">
         <v>31</v>
       </c>
       <c r="C34" t="s">
@@ -13324,7 +12732,7 @@
         <v>1066</v>
       </c>
       <c r="O34" t="s">
-        <v>1516</v>
+        <v>1368</v>
       </c>
     </row>
     <row r="35" spans="1:15" ht="12.75" x14ac:dyDescent="0.2">
@@ -13587,7 +12995,7 @@
         <v>1204</v>
       </c>
       <c r="O41" t="s">
-        <v>1383</v>
+        <v>1350</v>
       </c>
     </row>
     <row r="42" spans="1:15" ht="12.75" x14ac:dyDescent="0.2">
@@ -13920,7 +13328,7 @@
         <v>422</v>
       </c>
       <c r="J51" t="s">
-        <v>1533</v>
+        <v>1379</v>
       </c>
       <c r="K51" t="s">
         <v>1040</v>
@@ -13932,7 +13340,7 @@
         <v>1182</v>
       </c>
       <c r="N51" t="s">
-        <v>1575</v>
+        <v>1391</v>
       </c>
     </row>
     <row r="52" spans="1:15" ht="12.75" x14ac:dyDescent="0.2">
@@ -14075,10 +13483,10 @@
         <v>1233</v>
       </c>
       <c r="N55" t="s">
-        <v>1576</v>
+        <v>1392</v>
       </c>
       <c r="O55" t="s">
-        <v>1383</v>
+        <v>1350</v>
       </c>
     </row>
     <row r="56" spans="1:15" ht="12.75" x14ac:dyDescent="0.2">
@@ -14139,7 +13547,7 @@
         <v>143</v>
       </c>
       <c r="J57" t="s">
-        <v>1533</v>
+        <v>1379</v>
       </c>
       <c r="K57" t="s">
         <v>1040</v>
@@ -14151,10 +13559,10 @@
         <v>1080</v>
       </c>
       <c r="N57" t="s">
-        <v>1534</v>
+        <v>1380</v>
       </c>
       <c r="O57" t="s">
-        <v>1383</v>
+        <v>1350</v>
       </c>
     </row>
     <row r="58" spans="1:15" ht="12.75" x14ac:dyDescent="0.2">
@@ -14457,7 +13865,7 @@
       </c>
       <c r="N65"/>
       <c r="O65" t="s">
-        <v>1383</v>
+        <v>1350</v>
       </c>
     </row>
     <row r="66" spans="1:15" ht="12.75" x14ac:dyDescent="0.2">
@@ -14571,7 +13979,7 @@
         <v>1133</v>
       </c>
       <c r="O68" t="s">
-        <v>1422</v>
+        <v>1352</v>
       </c>
     </row>
     <row r="69" spans="1:15" ht="12.75" x14ac:dyDescent="0.2">
@@ -14710,7 +14118,7 @@
       </c>
       <c r="N72"/>
       <c r="O72" t="s">
-        <v>1383</v>
+        <v>1350</v>
       </c>
     </row>
     <row r="73" spans="1:15" ht="12.75" x14ac:dyDescent="0.2">
@@ -14755,7 +14163,7 @@
       </c>
       <c r="N73"/>
       <c r="O73" t="s">
-        <v>1383</v>
+        <v>1350</v>
       </c>
     </row>
     <row r="74" spans="1:15" ht="12.75" x14ac:dyDescent="0.2">
@@ -14970,7 +14378,7 @@
       </c>
       <c r="N79"/>
       <c r="O79" t="s">
-        <v>1383</v>
+        <v>1350</v>
       </c>
     </row>
     <row r="80" spans="1:15" ht="12.75" x14ac:dyDescent="0.2">
@@ -15014,7 +14422,7 @@
         <v>1248</v>
       </c>
       <c r="O80" t="s">
-        <v>1383</v>
+        <v>1350</v>
       </c>
     </row>
     <row r="81" spans="1:15" ht="12.75" x14ac:dyDescent="0.2">
@@ -15094,36 +14502,36 @@
         <v>1238</v>
       </c>
       <c r="O82" t="s">
-        <v>1383</v>
+        <v>1350</v>
       </c>
     </row>
     <row r="83" spans="1:15" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A83">
-        <v>90</v>
+        <v>83</v>
       </c>
       <c r="B83" t="s">
-        <v>1252</v>
+        <v>1222</v>
       </c>
       <c r="C83" t="s">
         <v>1039</v>
       </c>
       <c r="D83">
-        <v>2003</v>
+        <v>2012</v>
       </c>
       <c r="E83" t="s">
         <v>32</v>
       </c>
       <c r="F83" t="s">
-        <v>1258</v>
+        <v>1223</v>
       </c>
       <c r="G83" t="s">
-        <v>1259</v>
+        <v>1224</v>
       </c>
       <c r="H83" t="s">
-        <v>1129</v>
+        <v>1225</v>
       </c>
       <c r="I83" t="s">
-        <v>1260</v>
+        <v>1226</v>
       </c>
       <c r="J83" t="s">
         <v>1037</v>
@@ -15131,143 +14539,145 @@
       <c r="K83" t="s">
         <v>1040</v>
       </c>
-      <c r="L83" t="s">
-        <v>1261</v>
-      </c>
       <c r="M83" t="s">
-        <v>1221</v>
+        <v>1080</v>
       </c>
       <c r="N83"/>
       <c r="O83" t="s">
-        <v>1514</v>
+        <v>1350</v>
       </c>
     </row>
     <row r="84" spans="1:15" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A84">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="B84" t="s">
-        <v>1222</v>
+        <v>1227</v>
       </c>
       <c r="C84" t="s">
         <v>1039</v>
       </c>
       <c r="D84">
-        <v>2012</v>
+        <v>2003</v>
       </c>
       <c r="E84" t="s">
-        <v>32</v>
-      </c>
-      <c r="F84" t="s">
-        <v>1223</v>
+        <v>78</v>
       </c>
       <c r="G84" t="s">
-        <v>1224</v>
-      </c>
-      <c r="H84" t="s">
-        <v>1225</v>
-      </c>
-      <c r="I84" t="s">
-        <v>1226</v>
+        <v>1228</v>
       </c>
       <c r="J84" t="s">
-        <v>1037</v>
-      </c>
-      <c r="K84" t="s">
-        <v>1040</v>
-      </c>
-      <c r="M84" t="s">
-        <v>1080</v>
+        <v>1039</v>
       </c>
       <c r="N84"/>
-      <c r="O84" t="s">
-        <v>1383</v>
-      </c>
     </row>
     <row r="85" spans="1:15" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A85">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="B85" t="s">
-        <v>1227</v>
+        <v>1176</v>
       </c>
       <c r="C85" t="s">
         <v>1039</v>
       </c>
       <c r="D85">
-        <v>2003</v>
+        <v>2009</v>
       </c>
       <c r="E85" t="s">
         <v>78</v>
       </c>
       <c r="G85" t="s">
-        <v>1228</v>
+        <v>1177</v>
       </c>
       <c r="J85" t="s">
-        <v>1039</v>
+        <v>1037</v>
+      </c>
+      <c r="K85" t="s">
+        <v>1178</v>
+      </c>
+      <c r="M85" t="s">
+        <v>1080</v>
       </c>
       <c r="N85"/>
+      <c r="O85" t="s">
+        <v>1383</v>
+      </c>
     </row>
     <row r="86" spans="1:15" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A86">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="B86" t="s">
-        <v>1176</v>
+        <v>1252</v>
       </c>
       <c r="C86" t="s">
         <v>1039</v>
       </c>
       <c r="D86">
-        <v>2009</v>
+        <v>2019</v>
       </c>
       <c r="E86" t="s">
         <v>78</v>
       </c>
+      <c r="F86" t="s">
+        <v>1253</v>
+      </c>
       <c r="G86" t="s">
-        <v>1177</v>
+        <v>1254</v>
+      </c>
+      <c r="H86" t="s">
+        <v>1255</v>
+      </c>
+      <c r="I86" t="s">
+        <v>872</v>
       </c>
       <c r="J86" t="s">
         <v>1037</v>
       </c>
       <c r="K86" t="s">
-        <v>1178</v>
+        <v>1040</v>
+      </c>
+      <c r="L86" t="s">
+        <v>1256</v>
       </c>
       <c r="M86" t="s">
         <v>1080</v>
       </c>
-      <c r="N86"/>
+      <c r="N86" t="s">
+        <v>1257</v>
+      </c>
       <c r="O86" t="s">
-        <v>1551</v>
+        <v>1350</v>
       </c>
     </row>
     <row r="87" spans="1:15" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A87">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="B87" t="s">
-        <v>1252</v>
+        <v>1216</v>
       </c>
       <c r="C87" t="s">
         <v>1039</v>
       </c>
       <c r="D87">
-        <v>2019</v>
+        <v>2013</v>
       </c>
       <c r="E87" t="s">
-        <v>78</v>
+        <v>32</v>
       </c>
       <c r="F87" t="s">
-        <v>1253</v>
+        <v>1217</v>
       </c>
       <c r="G87" t="s">
-        <v>1254</v>
+        <v>1218</v>
       </c>
       <c r="H87" t="s">
-        <v>1255</v>
+        <v>1129</v>
       </c>
       <c r="I87" t="s">
-        <v>872</v>
+        <v>1219</v>
       </c>
       <c r="J87" t="s">
         <v>1037</v>
@@ -15276,45 +14686,43 @@
         <v>1040</v>
       </c>
       <c r="L87" t="s">
-        <v>1256</v>
+        <v>1220</v>
       </c>
       <c r="M87" t="s">
-        <v>1080</v>
-      </c>
-      <c r="N87" t="s">
-        <v>1257</v>
-      </c>
+        <v>1221</v>
+      </c>
+      <c r="N87"/>
       <c r="O87" t="s">
-        <v>1383</v>
+        <v>1350</v>
       </c>
     </row>
     <row r="88" spans="1:15" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A88">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="B88" t="s">
-        <v>1216</v>
+        <v>1252</v>
       </c>
       <c r="C88" t="s">
         <v>1039</v>
       </c>
       <c r="D88">
-        <v>2013</v>
+        <v>2003</v>
       </c>
       <c r="E88" t="s">
         <v>32</v>
       </c>
       <c r="F88" t="s">
-        <v>1217</v>
+        <v>1258</v>
       </c>
       <c r="G88" t="s">
-        <v>1218</v>
+        <v>1259</v>
       </c>
       <c r="H88" t="s">
         <v>1129</v>
       </c>
       <c r="I88" t="s">
-        <v>1219</v>
+        <v>1260</v>
       </c>
       <c r="J88" t="s">
         <v>1037</v>
@@ -15323,14 +14731,14 @@
         <v>1040</v>
       </c>
       <c r="L88" t="s">
-        <v>1220</v>
+        <v>1261</v>
       </c>
       <c r="M88" t="s">
         <v>1221</v>
       </c>
       <c r="N88"/>
       <c r="O88" t="s">
-        <v>1383</v>
+        <v>1366</v>
       </c>
     </row>
     <row r="89" spans="1:15" ht="12.75" x14ac:dyDescent="0.2">
@@ -15375,7 +14783,7 @@
       </c>
       <c r="N89"/>
       <c r="O89" t="s">
-        <v>1383</v>
+        <v>1350</v>
       </c>
     </row>
     <row r="90" spans="1:15" ht="12.75" x14ac:dyDescent="0.2">
@@ -15420,7 +14828,7 @@
       </c>
       <c r="N90"/>
       <c r="O90" t="s">
-        <v>1383</v>
+        <v>1350</v>
       </c>
     </row>
     <row r="91" spans="1:15" ht="12.75" x14ac:dyDescent="0.2">
@@ -15440,16 +14848,16 @@
         <v>32</v>
       </c>
       <c r="F91" t="s">
+        <v>1331</v>
+      </c>
+      <c r="G91" t="s">
         <v>1332</v>
-      </c>
-      <c r="G91" t="s">
-        <v>1333</v>
       </c>
       <c r="H91" t="s">
         <v>1062</v>
       </c>
       <c r="I91" t="s">
-        <v>1334</v>
+        <v>1333</v>
       </c>
       <c r="J91" t="s">
         <v>1037</v>
@@ -15465,7 +14873,7 @@
       </c>
       <c r="N91"/>
       <c r="O91" t="s">
-        <v>1383</v>
+        <v>1350</v>
       </c>
     </row>
     <row r="92" spans="1:15" ht="12.75" x14ac:dyDescent="0.2">
@@ -15509,10 +14917,10 @@
         <v>1152</v>
       </c>
       <c r="N92" t="s">
-        <v>1419</v>
+        <v>1351</v>
       </c>
       <c r="O92" t="s">
-        <v>1552</v>
+        <v>1384</v>
       </c>
     </row>
     <row r="93" spans="1:15" ht="12.75" x14ac:dyDescent="0.2">
@@ -15532,10 +14940,10 @@
         <v>32</v>
       </c>
       <c r="F93" t="s">
+        <v>1334</v>
+      </c>
+      <c r="G93" t="s">
         <v>1335</v>
-      </c>
-      <c r="G93" t="s">
-        <v>1336</v>
       </c>
       <c r="H93" t="s">
         <v>1062</v>
@@ -15547,19 +14955,19 @@
         <v>1037</v>
       </c>
       <c r="K93" t="s">
-        <v>1337</v>
+        <v>1336</v>
       </c>
       <c r="L93" t="s">
         <v>1065</v>
       </c>
       <c r="M93" t="s">
+        <v>1337</v>
+      </c>
+      <c r="N93" t="s">
         <v>1338</v>
       </c>
-      <c r="N93" t="s">
-        <v>1339</v>
-      </c>
       <c r="O93" t="s">
-        <v>1497</v>
+        <v>1364</v>
       </c>
     </row>
     <row r="94" spans="1:15" ht="12.75" x14ac:dyDescent="0.2">
@@ -15604,7 +15012,7 @@
       </c>
       <c r="N94"/>
       <c r="O94" t="s">
-        <v>1383</v>
+        <v>1350</v>
       </c>
     </row>
     <row r="95" spans="1:15" ht="12.75" x14ac:dyDescent="0.2">
@@ -15651,7 +15059,7 @@
         <v>1110</v>
       </c>
       <c r="O95" t="s">
-        <v>1383</v>
+        <v>1350</v>
       </c>
     </row>
     <row r="96" spans="1:15" ht="12.75" x14ac:dyDescent="0.2">
@@ -15698,7 +15106,7 @@
         <v>1283</v>
       </c>
       <c r="O96" t="s">
-        <v>1383</v>
+        <v>1350</v>
       </c>
     </row>
     <row r="97" spans="1:15" ht="12.75" x14ac:dyDescent="0.2">
@@ -15745,7 +15153,7 @@
         <v>1302</v>
       </c>
       <c r="O97" t="s">
-        <v>1496</v>
+        <v>1363</v>
       </c>
     </row>
     <row r="98" spans="1:15" ht="12.75" x14ac:dyDescent="0.2">
@@ -15834,54 +15242,54 @@
       </c>
       <c r="N99"/>
       <c r="O99" t="s">
-        <v>1383</v>
+        <v>1350</v>
       </c>
     </row>
     <row r="100" spans="1:15" ht="63.75" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A100" s="15">
+      <c r="A100" s="11">
         <v>102</v>
       </c>
-      <c r="B100" s="10" t="s">
+      <c r="B100" s="6" t="s">
         <v>1290</v>
       </c>
-      <c r="C100" s="10" t="s">
+      <c r="C100" s="6" t="s">
         <v>1039</v>
       </c>
-      <c r="D100" s="10">
+      <c r="D100" s="6">
         <v>1999</v>
       </c>
-      <c r="E100" s="10" t="s">
+      <c r="E100" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="F100" s="11" t="s">
+      <c r="F100" s="7" t="s">
         <v>1291</v>
       </c>
-      <c r="G100" s="10" t="s">
+      <c r="G100" s="6" t="s">
         <v>1292</v>
       </c>
-      <c r="H100" s="10" t="s">
+      <c r="H100" s="6" t="s">
         <v>1293</v>
       </c>
-      <c r="I100" s="10" t="s">
+      <c r="I100" s="6" t="s">
         <v>1294</v>
       </c>
-      <c r="J100" s="10" t="s">
-        <v>1533</v>
-      </c>
-      <c r="K100" s="12" t="s">
+      <c r="J100" s="6" t="s">
+        <v>1379</v>
+      </c>
+      <c r="K100" s="8" t="s">
         <v>1189</v>
       </c>
-      <c r="L100" s="10" t="s">
+      <c r="L100" s="6" t="s">
         <v>1295</v>
       </c>
-      <c r="M100" s="10" t="s">
+      <c r="M100" s="6" t="s">
         <v>1296</v>
       </c>
-      <c r="N100" s="14" t="s">
+      <c r="N100" s="10" t="s">
         <v>1297</v>
       </c>
-      <c r="O100" s="13" t="s">
-        <v>1549</v>
+      <c r="O100" s="9" t="s">
+        <v>1381</v>
       </c>
     </row>
     <row r="101" spans="1:15" ht="12.75" x14ac:dyDescent="0.2">
@@ -15926,7 +15334,7 @@
       </c>
       <c r="N101"/>
       <c r="O101" t="s">
-        <v>1383</v>
+        <v>1350</v>
       </c>
     </row>
     <row r="102" spans="1:15" ht="12.75" x14ac:dyDescent="0.2">
@@ -16005,7 +15413,7 @@
         <v>1037</v>
       </c>
       <c r="K103" t="s">
-        <v>1461</v>
+        <v>1353</v>
       </c>
       <c r="L103" t="s">
         <v>1115</v>
@@ -16017,7 +15425,7 @@
         <v>1271</v>
       </c>
       <c r="O103" t="s">
-        <v>1550</v>
+        <v>1382</v>
       </c>
     </row>
     <row r="104" spans="1:15" ht="12.75" x14ac:dyDescent="0.2">
@@ -16102,7 +15510,7 @@
         <v>1117</v>
       </c>
       <c r="O105" t="s">
-        <v>1383</v>
+        <v>1350</v>
       </c>
     </row>
     <row r="106" spans="1:15" ht="12.75" x14ac:dyDescent="0.2">
@@ -16122,16 +15530,16 @@
         <v>32</v>
       </c>
       <c r="F106" t="s">
+        <v>1321</v>
+      </c>
+      <c r="G106" t="s">
         <v>1322</v>
       </c>
-      <c r="G106" t="s">
+      <c r="H106" t="s">
         <v>1323</v>
       </c>
-      <c r="H106" t="s">
+      <c r="I106" t="s">
         <v>1324</v>
-      </c>
-      <c r="I106" t="s">
-        <v>1325</v>
       </c>
       <c r="J106" t="s">
         <v>1056</v>
@@ -16143,10 +15551,10 @@
         <v>1065</v>
       </c>
       <c r="M106" t="s">
+        <v>1325</v>
+      </c>
+      <c r="N106" t="s">
         <v>1326</v>
-      </c>
-      <c r="N106" t="s">
-        <v>1327</v>
       </c>
     </row>
     <row r="107" spans="1:15" ht="12.75" x14ac:dyDescent="0.2">
@@ -16166,10 +15574,10 @@
         <v>32</v>
       </c>
       <c r="F107" t="s">
+        <v>1327</v>
+      </c>
+      <c r="G107" t="s">
         <v>1328</v>
-      </c>
-      <c r="G107" t="s">
-        <v>1329</v>
       </c>
       <c r="H107" t="s">
         <v>1129</v>
@@ -16184,13 +15592,13 @@
         <v>1040</v>
       </c>
       <c r="L107" t="s">
-        <v>1330</v>
+        <v>1329</v>
       </c>
       <c r="M107" t="s">
         <v>1167</v>
       </c>
       <c r="N107" t="s">
-        <v>1331</v>
+        <v>1330</v>
       </c>
     </row>
     <row r="108" spans="1:15" ht="12.75" x14ac:dyDescent="0.2">
@@ -16234,10 +15642,10 @@
         <v>1161</v>
       </c>
       <c r="N108" t="s">
-        <v>1515</v>
+        <v>1367</v>
       </c>
       <c r="O108" t="s">
-        <v>1500</v>
+        <v>1365</v>
       </c>
     </row>
     <row r="109" spans="1:15" ht="12.75" x14ac:dyDescent="0.2">
@@ -16284,7 +15692,7 @@
         <v>1210</v>
       </c>
       <c r="O109" t="s">
-        <v>1383</v>
+        <v>1350</v>
       </c>
     </row>
     <row r="110" spans="1:15" ht="12.75" x14ac:dyDescent="0.2">
@@ -16304,32 +15712,32 @@
         <v>32</v>
       </c>
       <c r="F110" t="s">
-        <v>1490</v>
+        <v>1357</v>
       </c>
       <c r="G110" t="s">
-        <v>1491</v>
+        <v>1358</v>
       </c>
       <c r="H110" t="s">
         <v>1225</v>
       </c>
       <c r="I110" t="s">
-        <v>1492</v>
+        <v>1359</v>
       </c>
       <c r="J110" t="s">
         <v>1037</v>
       </c>
       <c r="K110" t="s">
-        <v>1493</v>
+        <v>1360</v>
       </c>
       <c r="L110" t="s">
-        <v>1494</v>
+        <v>1361</v>
       </c>
       <c r="M110" t="s">
-        <v>1495</v>
+        <v>1362</v>
       </c>
       <c r="N110"/>
       <c r="O110" t="s">
-        <v>1383</v>
+        <v>1350</v>
       </c>
     </row>
     <row r="111" spans="1:15" ht="12.75" x14ac:dyDescent="0.2">
@@ -16337,7 +15745,7 @@
         <v>113</v>
       </c>
       <c r="B111" t="s">
-        <v>1517</v>
+        <v>1369</v>
       </c>
       <c r="C111" t="s">
         <v>1039</v>
@@ -16349,16 +15757,16 @@
         <v>32</v>
       </c>
       <c r="F111" t="s">
-        <v>1518</v>
+        <v>1370</v>
       </c>
       <c r="G111" t="s">
-        <v>1519</v>
+        <v>1371</v>
       </c>
       <c r="H111" t="s">
         <v>1062</v>
       </c>
       <c r="I111" t="s">
-        <v>1520</v>
+        <v>1372</v>
       </c>
       <c r="J111" t="s">
         <v>1037</v>
@@ -16367,16 +15775,16 @@
         <v>1040</v>
       </c>
       <c r="L111" t="s">
-        <v>1521</v>
+        <v>1373</v>
       </c>
       <c r="M111" t="s">
-        <v>1522</v>
+        <v>1374</v>
       </c>
       <c r="N111" t="s">
-        <v>1527</v>
+        <v>1375</v>
       </c>
       <c r="O111" t="s">
-        <v>1383</v>
+        <v>1350</v>
       </c>
     </row>
     <row r="112" spans="1:15" ht="12.75" x14ac:dyDescent="0.2">
@@ -16396,16 +15804,16 @@
         <v>32</v>
       </c>
       <c r="F112" t="s">
-        <v>1531</v>
+        <v>1377</v>
       </c>
       <c r="G112" t="s">
-        <v>1530</v>
+        <v>1376</v>
       </c>
       <c r="J112" t="s">
         <v>1039</v>
       </c>
       <c r="L112" t="s">
-        <v>1532</v>
+        <v>1378</v>
       </c>
       <c r="N112"/>
     </row>
@@ -16414,7 +15822,7 @@
         <v>115</v>
       </c>
       <c r="B113" t="s">
-        <v>1553</v>
+        <v>1385</v>
       </c>
       <c r="C113" t="s">
         <v>1039</v>
@@ -16426,10 +15834,10 @@
         <v>78</v>
       </c>
       <c r="G113" t="s">
-        <v>1554</v>
+        <v>1386</v>
       </c>
       <c r="H113" t="s">
-        <v>1555</v>
+        <v>1387</v>
       </c>
       <c r="I113">
         <v>2013</v>
@@ -16438,19 +15846,19 @@
         <v>1037</v>
       </c>
       <c r="K113" t="s">
-        <v>1555</v>
+        <v>1387</v>
       </c>
       <c r="L113" t="s">
-        <v>1556</v>
+        <v>1388</v>
       </c>
       <c r="M113" t="s">
-        <v>1557</v>
+        <v>1389</v>
       </c>
       <c r="N113" t="s">
-        <v>1558</v>
+        <v>1390</v>
       </c>
       <c r="O113" t="s">
-        <v>1383</v>
+        <v>1350</v>
       </c>
     </row>
     <row r="114" spans="1:15" ht="12.75" x14ac:dyDescent="0.2">
@@ -16458,7 +15866,7 @@
         <v>116</v>
       </c>
       <c r="B114" t="s">
-        <v>1577</v>
+        <v>1393</v>
       </c>
       <c r="C114" t="s">
         <v>1039</v>
@@ -16470,16 +15878,16 @@
         <v>538</v>
       </c>
       <c r="F114" t="s">
-        <v>1578</v>
+        <v>1394</v>
       </c>
       <c r="G114" t="s">
-        <v>1579</v>
+        <v>1395</v>
       </c>
       <c r="H114" t="s">
         <v>436</v>
       </c>
       <c r="I114" t="s">
-        <v>1580</v>
+        <v>1396</v>
       </c>
       <c r="J114" t="s">
         <v>1037</v>
@@ -16488,20 +15896,64 @@
         <v>1232</v>
       </c>
       <c r="M114" t="s">
-        <v>1594</v>
+        <v>1401</v>
       </c>
       <c r="N114" t="s">
-        <v>1595</v>
+        <v>1402</v>
       </c>
       <c r="O114" t="s">
-        <v>1383</v>
+        <v>1350</v>
+      </c>
+    </row>
+    <row r="115" spans="1:15" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A115">
+        <v>117</v>
+      </c>
+      <c r="B115" t="s">
+        <v>1016</v>
+      </c>
+      <c r="C115" t="s">
+        <v>1039</v>
+      </c>
+      <c r="D115">
+        <v>2005</v>
+      </c>
+      <c r="E115" t="s">
+        <v>32</v>
+      </c>
+      <c r="F115" t="s">
+        <v>1411</v>
+      </c>
+      <c r="G115" t="s">
+        <v>1408</v>
+      </c>
+      <c r="H115" t="s">
+        <v>1062</v>
+      </c>
+      <c r="I115" t="s">
+        <v>1022</v>
+      </c>
+      <c r="J115" t="s">
+        <v>1064</v>
+      </c>
+      <c r="K115" s="12" t="s">
+        <v>1040</v>
+      </c>
+      <c r="L115" t="s">
+        <v>1065</v>
+      </c>
+      <c r="M115" t="s">
+        <v>1409</v>
+      </c>
+      <c r="N115" s="3" t="s">
+        <v>1410</v>
       </c>
     </row>
   </sheetData>
   <customSheetViews>
     <customSheetView guid="{DDF332C4-B375-45B2-87DF-0444D13E4F0C}" filter="1" showAutoFilter="1">
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-      <autoFilter ref="A1:N91" xr:uid="{793DA00C-52BD-4D16-A4CF-C2DD8652D146}">
+      <autoFilter ref="A1:N91" xr:uid="{9036DCA6-CE51-4890-8FC1-C638AC96FF47}">
         <filterColumn colId="9">
           <filters>
             <filter val="Unsure"/>
@@ -16630,10 +16082,10 @@
     <hyperlink ref="F109" r:id="rId115" xr:uid="{00000000-0004-0000-0100-000072000000}"/>
     <hyperlink ref="F81" r:id="rId116" xr:uid="{00000000-0004-0000-0100-000073000000}"/>
     <hyperlink ref="K81" r:id="rId117" xr:uid="{00000000-0004-0000-0100-000074000000}"/>
-    <hyperlink ref="F88" r:id="rId118" xr:uid="{00000000-0004-0000-0100-000075000000}"/>
-    <hyperlink ref="K88" r:id="rId119" xr:uid="{00000000-0004-0000-0100-000076000000}"/>
-    <hyperlink ref="F84" r:id="rId120" xr:uid="{00000000-0004-0000-0100-000077000000}"/>
-    <hyperlink ref="K84" r:id="rId121" xr:uid="{00000000-0004-0000-0100-000078000000}"/>
+    <hyperlink ref="F87" r:id="rId118" xr:uid="{00000000-0004-0000-0100-000075000000}"/>
+    <hyperlink ref="K87" r:id="rId119" xr:uid="{00000000-0004-0000-0100-000076000000}"/>
+    <hyperlink ref="F83" r:id="rId120" xr:uid="{00000000-0004-0000-0100-000077000000}"/>
+    <hyperlink ref="K83" r:id="rId121" xr:uid="{00000000-0004-0000-0100-000078000000}"/>
     <hyperlink ref="F21" r:id="rId122" xr:uid="{00000000-0004-0000-0100-000079000000}"/>
     <hyperlink ref="K21" r:id="rId123" xr:uid="{00000000-0004-0000-0100-00007A000000}"/>
     <hyperlink ref="F33" r:id="rId124" location="t0005" xr:uid="{00000000-0004-0000-0100-00007B000000}"/>
@@ -16647,10 +16099,10 @@
     <hyperlink ref="F80" r:id="rId132" xr:uid="{00000000-0004-0000-0100-000083000000}"/>
     <hyperlink ref="K80" r:id="rId133" xr:uid="{00000000-0004-0000-0100-000084000000}"/>
     <hyperlink ref="F73" r:id="rId134" xr:uid="{00000000-0004-0000-0100-000085000000}"/>
-    <hyperlink ref="F87" r:id="rId135" xr:uid="{00000000-0004-0000-0100-000086000000}"/>
-    <hyperlink ref="K87" r:id="rId136" xr:uid="{00000000-0004-0000-0100-000087000000}"/>
-    <hyperlink ref="F83" r:id="rId137" xr:uid="{00000000-0004-0000-0100-000088000000}"/>
-    <hyperlink ref="K83" r:id="rId138" xr:uid="{00000000-0004-0000-0100-000089000000}"/>
+    <hyperlink ref="F86" r:id="rId135" xr:uid="{00000000-0004-0000-0100-000086000000}"/>
+    <hyperlink ref="K86" r:id="rId136" xr:uid="{00000000-0004-0000-0100-000087000000}"/>
+    <hyperlink ref="F88" r:id="rId137" xr:uid="{00000000-0004-0000-0100-000088000000}"/>
+    <hyperlink ref="K88" r:id="rId138" xr:uid="{00000000-0004-0000-0100-000089000000}"/>
     <hyperlink ref="F94" r:id="rId139" xr:uid="{00000000-0004-0000-0100-00008A000000}"/>
     <hyperlink ref="K94" r:id="rId140" xr:uid="{00000000-0004-0000-0100-00008B000000}"/>
     <hyperlink ref="F103" r:id="rId141" xr:uid="{00000000-0004-0000-0100-00008C000000}"/>
@@ -16680,3067 +16132,27 @@
     <hyperlink ref="K91" r:id="rId165" xr:uid="{00000000-0004-0000-0100-0000A4000000}"/>
     <hyperlink ref="F93" r:id="rId166" xr:uid="{00000000-0004-0000-0100-0000A5000000}"/>
     <hyperlink ref="K111" r:id="rId167" xr:uid="{00000000-0004-0000-0100-0000A6000000}"/>
+    <hyperlink ref="K115" r:id="rId168" xr:uid="{0EE2D77F-4560-4BA9-853D-80B5D349870C}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="90" verticalDpi="90" r:id="rId168"/>
+  <pageSetup orientation="portrait" horizontalDpi="90" verticalDpi="90" r:id="rId169"/>
+  <headerFooter>
+    <oddHeader>&amp;R&amp;"Calibri"&amp;12&amp;K000000 UNCLASSIFIED - NON CLASSIFIÉ&amp;1#_x000D_</oddHeader>
+  </headerFooter>
   <tableParts count="1">
-    <tablePart r:id="rId169"/>
+    <tablePart r:id="rId170"/>
   </tableParts>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <sheetPr>
-    <outlinePr summaryBelow="0" summaryRight="0"/>
-  </sheetPr>
-  <dimension ref="A1:O83"/>
-  <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A19" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C24" sqref="C24"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="1" max="1" width="16.85546875" customWidth="1"/>
-    <col min="5" max="5" width="40.85546875" customWidth="1"/>
-    <col min="10" max="10" width="12.5703125" style="7"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:15" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="1" t="s">
-        <v>1340</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>1600</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>1605</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>1599</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>1341</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>1342</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>1392</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>1343</v>
-      </c>
-      <c r="J1" s="16" t="s">
-        <v>1154</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>1344</v>
-      </c>
-      <c r="L1" s="1" t="s">
-        <v>1452</v>
-      </c>
-      <c r="M1" s="1" t="s">
-        <v>1454</v>
-      </c>
-      <c r="N1" s="1" t="s">
-        <v>1591</v>
-      </c>
-      <c r="O1" s="1" t="s">
-        <v>1345</v>
-      </c>
-    </row>
-    <row r="2" spans="1:15" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="1" t="s">
-        <v>1360</v>
-      </c>
-      <c r="B2" s="1">
-        <v>15</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>1016</v>
-      </c>
-      <c r="D2" s="1">
-        <v>2005</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>1361</v>
-      </c>
-      <c r="F2" s="1">
-        <v>1993</v>
-      </c>
-      <c r="G2" s="1">
-        <v>1998</v>
-      </c>
-      <c r="H2" s="1">
-        <v>1500000</v>
-      </c>
-      <c r="I2" s="1">
-        <v>0.67</v>
-      </c>
-      <c r="J2" s="7">
-        <v>0.82</v>
-      </c>
-      <c r="K2" s="3">
-        <f>8/9</f>
-        <v>0.88888888888888884</v>
-      </c>
-      <c r="L2" s="3"/>
-      <c r="M2" s="3"/>
-      <c r="N2" s="3" t="s">
-        <v>1592</v>
-      </c>
-      <c r="O2" s="4" t="s">
-        <v>1381</v>
-      </c>
-    </row>
-    <row r="3" spans="1:15" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="1" t="s">
-        <v>1364</v>
-      </c>
-      <c r="B3" s="1">
-        <v>15</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>1016</v>
-      </c>
-      <c r="D3" s="1">
-        <v>2005</v>
-      </c>
-      <c r="E3" s="1" t="s">
-        <v>1362</v>
-      </c>
-      <c r="F3" s="1">
-        <v>1995</v>
-      </c>
-      <c r="G3" s="1">
-        <v>2000</v>
-      </c>
-      <c r="H3" s="1">
-        <v>1500000</v>
-      </c>
-      <c r="I3" s="1">
-        <v>0.85</v>
-      </c>
-      <c r="J3" s="7">
-        <v>0.92</v>
-      </c>
-      <c r="K3" s="3">
-        <f>53/59</f>
-        <v>0.89830508474576276</v>
-      </c>
-      <c r="L3" s="3"/>
-      <c r="M3" s="3"/>
-      <c r="N3" s="3" t="s">
-        <v>1592</v>
-      </c>
-    </row>
-    <row r="4" spans="1:15" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="1" t="s">
-        <v>1363</v>
-      </c>
-      <c r="B4" s="1">
-        <v>15</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>1016</v>
-      </c>
-      <c r="D4" s="1">
-        <v>2005</v>
-      </c>
-      <c r="E4" s="1" t="s">
-        <v>1372</v>
-      </c>
-      <c r="F4" s="1">
-        <v>1994</v>
-      </c>
-      <c r="G4" s="1">
-        <v>2004</v>
-      </c>
-      <c r="H4" s="1">
-        <v>1500000</v>
-      </c>
-      <c r="I4" s="1">
-        <v>0.9</v>
-      </c>
-      <c r="J4" s="7">
-        <v>0.96</v>
-      </c>
-      <c r="K4" s="3">
-        <f>10/13</f>
-        <v>0.76923076923076927</v>
-      </c>
-      <c r="L4" s="3"/>
-      <c r="M4" s="3"/>
-      <c r="N4" s="3" t="s">
-        <v>1592</v>
-      </c>
-    </row>
-    <row r="5" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="1" t="s">
-        <v>1365</v>
-      </c>
-      <c r="B5" s="1">
-        <v>15</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>1016</v>
-      </c>
-      <c r="D5" s="1">
-        <v>2005</v>
-      </c>
-      <c r="E5" s="1" t="s">
-        <v>1373</v>
-      </c>
-      <c r="F5" s="1">
-        <v>1992</v>
-      </c>
-      <c r="G5" s="1">
-        <v>2004</v>
-      </c>
-      <c r="H5" s="1">
-        <v>1500000</v>
-      </c>
-      <c r="I5" s="1">
-        <v>0.86</v>
-      </c>
-      <c r="J5" s="7">
-        <v>0.96</v>
-      </c>
-      <c r="K5" s="3">
-        <f>19/22</f>
-        <v>0.86363636363636365</v>
-      </c>
-      <c r="L5" s="3"/>
-      <c r="M5" s="3"/>
-      <c r="N5" s="3" t="s">
-        <v>1592</v>
-      </c>
-    </row>
-    <row r="6" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="1" t="s">
-        <v>1366</v>
-      </c>
-      <c r="B6" s="1">
-        <v>15</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>1016</v>
-      </c>
-      <c r="D6" s="1">
-        <v>2005</v>
-      </c>
-      <c r="E6" s="1" t="s">
-        <v>1374</v>
-      </c>
-      <c r="F6" s="1">
-        <v>1992</v>
-      </c>
-      <c r="G6" s="1">
-        <v>2004</v>
-      </c>
-      <c r="H6" s="1">
-        <v>1500000</v>
-      </c>
-      <c r="I6" s="1">
-        <v>0.81</v>
-      </c>
-      <c r="J6" s="7">
-        <v>0.92</v>
-      </c>
-      <c r="K6" s="3">
-        <f>64/73</f>
-        <v>0.87671232876712324</v>
-      </c>
-      <c r="L6" s="3"/>
-      <c r="M6" s="3"/>
-      <c r="N6" s="3" t="s">
-        <v>1592</v>
-      </c>
-    </row>
-    <row r="7" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="1" t="s">
-        <v>1367</v>
-      </c>
-      <c r="B7" s="1">
-        <v>15</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>1016</v>
-      </c>
-      <c r="D7" s="1">
-        <v>2005</v>
-      </c>
-      <c r="E7" s="1" t="s">
-        <v>1376</v>
-      </c>
-      <c r="F7" s="1">
-        <v>1997</v>
-      </c>
-      <c r="G7" s="1">
-        <v>2004</v>
-      </c>
-      <c r="H7" s="1">
-        <v>1500000</v>
-      </c>
-      <c r="I7" s="1">
-        <v>0.79</v>
-      </c>
-      <c r="J7" s="7">
-        <v>0.92</v>
-      </c>
-      <c r="K7" s="3">
-        <f>9/11</f>
-        <v>0.81818181818181823</v>
-      </c>
-      <c r="L7" s="3"/>
-      <c r="M7" s="3"/>
-      <c r="N7" s="3" t="s">
-        <v>1592</v>
-      </c>
-    </row>
-    <row r="8" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="1" t="s">
-        <v>1368</v>
-      </c>
-      <c r="B8" s="1">
-        <v>15</v>
-      </c>
-      <c r="C8" s="1" t="s">
-        <v>1016</v>
-      </c>
-      <c r="D8" s="1">
-        <v>2005</v>
-      </c>
-      <c r="E8" s="1" t="s">
-        <v>1375</v>
-      </c>
-      <c r="F8" s="1">
-        <v>1994</v>
-      </c>
-      <c r="G8" s="1">
-        <v>2004</v>
-      </c>
-      <c r="H8" s="1">
-        <v>1500000</v>
-      </c>
-      <c r="I8" s="1">
-        <v>0.85</v>
-      </c>
-      <c r="J8" s="7">
-        <v>0.92</v>
-      </c>
-      <c r="K8" s="3">
-        <f>144/173</f>
-        <v>0.83236994219653182</v>
-      </c>
-      <c r="L8" s="3"/>
-      <c r="M8" s="3"/>
-      <c r="N8" s="3" t="s">
-        <v>1592</v>
-      </c>
-    </row>
-    <row r="9" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="1" t="s">
-        <v>1369</v>
-      </c>
-      <c r="B9" s="1">
-        <v>15</v>
-      </c>
-      <c r="C9" s="1" t="s">
-        <v>1016</v>
-      </c>
-      <c r="D9" s="1">
-        <v>2005</v>
-      </c>
-      <c r="E9" s="1" t="s">
-        <v>1377</v>
-      </c>
-      <c r="F9" s="1">
-        <v>1993</v>
-      </c>
-      <c r="G9" s="1">
-        <v>2004</v>
-      </c>
-      <c r="H9" s="1">
-        <v>1500000</v>
-      </c>
-      <c r="I9" s="1">
-        <v>0.88</v>
-      </c>
-      <c r="J9" s="7">
-        <v>1.03</v>
-      </c>
-      <c r="K9" s="3">
-        <f>27/29</f>
-        <v>0.93103448275862066</v>
-      </c>
-      <c r="L9" s="3"/>
-      <c r="M9" s="3"/>
-      <c r="N9" s="3" t="s">
-        <v>1592</v>
-      </c>
-    </row>
-    <row r="10" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="1" t="s">
-        <v>1370</v>
-      </c>
-      <c r="B10" s="1">
-        <v>15</v>
-      </c>
-      <c r="C10" s="1" t="s">
-        <v>1016</v>
-      </c>
-      <c r="D10" s="1">
-        <v>2005</v>
-      </c>
-      <c r="E10" s="1" t="s">
-        <v>1378</v>
-      </c>
-      <c r="F10" s="1">
-        <v>1988</v>
-      </c>
-      <c r="G10" s="1">
-        <v>1991</v>
-      </c>
-      <c r="H10" s="1">
-        <v>1500000</v>
-      </c>
-      <c r="I10" s="1">
-        <v>0.9</v>
-      </c>
-      <c r="J10" s="7">
-        <v>1</v>
-      </c>
-      <c r="K10" s="3">
-        <f>143/154</f>
-        <v>0.9285714285714286</v>
-      </c>
-      <c r="L10" s="3"/>
-      <c r="M10" s="3"/>
-      <c r="N10" s="3" t="s">
-        <v>1592</v>
-      </c>
-    </row>
-    <row r="11" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="1" t="s">
-        <v>1371</v>
-      </c>
-      <c r="B11" s="1">
-        <v>15</v>
-      </c>
-      <c r="C11" s="1" t="s">
-        <v>1016</v>
-      </c>
-      <c r="D11" s="1">
-        <v>2005</v>
-      </c>
-      <c r="E11" s="1" t="s">
-        <v>1379</v>
-      </c>
-      <c r="F11" s="1">
-        <v>1988</v>
-      </c>
-      <c r="G11" s="1">
-        <v>2004</v>
-      </c>
-      <c r="H11" s="1">
-        <v>1500000</v>
-      </c>
-      <c r="I11" s="1">
-        <v>0.93</v>
-      </c>
-      <c r="J11" s="7">
-        <v>0.99</v>
-      </c>
-      <c r="K11" s="3">
-        <f>153/183</f>
-        <v>0.83606557377049184</v>
-      </c>
-      <c r="L11" s="3"/>
-      <c r="M11" s="3"/>
-      <c r="N11" s="3" t="s">
-        <v>1592</v>
-      </c>
-      <c r="O11" t="s">
-        <v>1380</v>
-      </c>
-    </row>
-    <row r="12" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="1" t="s">
-        <v>1436</v>
-      </c>
-      <c r="B12" s="1">
-        <v>20</v>
-      </c>
-      <c r="C12" s="1" t="s">
-        <v>1437</v>
-      </c>
-      <c r="D12" s="1">
-        <v>2000</v>
-      </c>
-      <c r="E12" t="s">
-        <v>1438</v>
-      </c>
-      <c r="F12" s="1">
-        <v>1991</v>
-      </c>
-      <c r="G12" s="1">
-        <v>1997</v>
-      </c>
-      <c r="H12">
-        <v>600000</v>
-      </c>
-      <c r="I12" t="s">
-        <v>1435</v>
-      </c>
-      <c r="N12" s="3" t="s">
-        <v>1592</v>
-      </c>
-      <c r="O12" t="s">
-        <v>1439</v>
-      </c>
-    </row>
-    <row r="13" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="1" t="s">
-        <v>1429</v>
-      </c>
-      <c r="B13" s="1">
-        <v>26</v>
-      </c>
-      <c r="C13" s="1" t="s">
-        <v>391</v>
-      </c>
-      <c r="D13" s="1">
-        <v>2020</v>
-      </c>
-      <c r="E13" t="s">
-        <v>1432</v>
-      </c>
-      <c r="F13" s="1">
-        <v>1979</v>
-      </c>
-      <c r="G13" s="1">
-        <v>2013</v>
-      </c>
-      <c r="H13">
-        <v>750000</v>
-      </c>
-      <c r="I13" t="s">
-        <v>1435</v>
-      </c>
-      <c r="N13" s="3" t="s">
-        <v>1592</v>
-      </c>
-    </row>
-    <row r="14" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="1" t="s">
-        <v>1430</v>
-      </c>
-      <c r="B14" s="1">
-        <v>26</v>
-      </c>
-      <c r="C14" s="1" t="s">
-        <v>391</v>
-      </c>
-      <c r="D14" s="1">
-        <v>2020</v>
-      </c>
-      <c r="E14" t="s">
-        <v>1433</v>
-      </c>
-      <c r="F14" s="1">
-        <v>1979</v>
-      </c>
-      <c r="G14" s="1">
-        <v>2013</v>
-      </c>
-      <c r="H14">
-        <v>750000</v>
-      </c>
-      <c r="I14" t="s">
-        <v>1435</v>
-      </c>
-      <c r="N14" s="3" t="s">
-        <v>1592</v>
-      </c>
-    </row>
-    <row r="15" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="1" t="s">
-        <v>1431</v>
-      </c>
-      <c r="B15" s="1">
-        <v>26</v>
-      </c>
-      <c r="C15" s="1" t="s">
-        <v>391</v>
-      </c>
-      <c r="D15" s="1">
-        <v>2020</v>
-      </c>
-      <c r="E15" t="s">
-        <v>1434</v>
-      </c>
-      <c r="F15" s="1">
-        <v>1979</v>
-      </c>
-      <c r="G15" s="1">
-        <v>2013</v>
-      </c>
-      <c r="H15">
-        <v>750000</v>
-      </c>
-      <c r="I15" t="s">
-        <v>1435</v>
-      </c>
-      <c r="N15" s="3" t="s">
-        <v>1592</v>
-      </c>
-    </row>
-    <row r="16" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="1" t="s">
-        <v>1440</v>
-      </c>
-      <c r="B16" s="1">
-        <v>32</v>
-      </c>
-      <c r="C16" s="1" t="s">
-        <v>573</v>
-      </c>
-      <c r="D16" s="1">
-        <v>2015</v>
-      </c>
-      <c r="E16" t="s">
-        <v>1441</v>
-      </c>
-      <c r="F16" s="1">
-        <v>1990</v>
-      </c>
-      <c r="G16" s="1">
-        <v>2012</v>
-      </c>
-      <c r="H16">
-        <v>600000</v>
-      </c>
-      <c r="J16" s="7">
-        <v>0.9</v>
-      </c>
-      <c r="N16" s="3" t="s">
-        <v>1592</v>
-      </c>
-    </row>
-    <row r="17" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="1" t="s">
-        <v>1442</v>
-      </c>
-      <c r="B17" s="1">
-        <v>32</v>
-      </c>
-      <c r="C17" s="1" t="s">
-        <v>573</v>
-      </c>
-      <c r="D17" s="1">
-        <v>2015</v>
-      </c>
-      <c r="E17" t="s">
-        <v>1443</v>
-      </c>
-      <c r="F17" s="1">
-        <v>1990</v>
-      </c>
-      <c r="G17" s="1">
-        <v>2012</v>
-      </c>
-      <c r="H17" s="1">
-        <v>600000</v>
-      </c>
-      <c r="J17" s="7">
-        <v>0.91300000000000003</v>
-      </c>
-      <c r="N17" s="3" t="s">
-        <v>1592</v>
-      </c>
-    </row>
-    <row r="18" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="1" t="s">
-        <v>1444</v>
-      </c>
-      <c r="B18" s="1">
-        <v>32</v>
-      </c>
-      <c r="C18" s="1" t="s">
-        <v>573</v>
-      </c>
-      <c r="D18" s="1">
-        <v>2015</v>
-      </c>
-      <c r="E18" t="s">
-        <v>1447</v>
-      </c>
-      <c r="F18" s="1">
-        <v>1990</v>
-      </c>
-      <c r="G18" s="1">
-        <v>2012</v>
-      </c>
-      <c r="H18" s="1">
-        <v>600000</v>
-      </c>
-      <c r="J18" s="7">
-        <v>0.81200000000000006</v>
-      </c>
-      <c r="N18" s="3" t="s">
-        <v>1592</v>
-      </c>
-    </row>
-    <row r="19" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="1" t="s">
-        <v>1445</v>
-      </c>
-      <c r="B19" s="1">
-        <v>32</v>
-      </c>
-      <c r="C19" s="1" t="s">
-        <v>573</v>
-      </c>
-      <c r="D19" s="1">
-        <v>2015</v>
-      </c>
-      <c r="E19" t="s">
-        <v>1448</v>
-      </c>
-      <c r="F19" s="1">
-        <v>1990</v>
-      </c>
-      <c r="G19" s="1">
-        <v>2012</v>
-      </c>
-      <c r="H19" s="1">
-        <v>600000</v>
-      </c>
-      <c r="J19" s="7">
-        <v>0.624</v>
-      </c>
-      <c r="N19" s="3" t="s">
-        <v>1592</v>
-      </c>
-    </row>
-    <row r="20" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="1" t="s">
-        <v>1446</v>
-      </c>
-      <c r="B20" s="1">
-        <v>32</v>
-      </c>
-      <c r="C20" s="1" t="s">
-        <v>573</v>
-      </c>
-      <c r="D20" s="1">
-        <v>2015</v>
-      </c>
-      <c r="E20" t="s">
-        <v>1449</v>
-      </c>
-      <c r="F20" s="1">
-        <v>1990</v>
-      </c>
-      <c r="G20" s="1">
-        <v>2012</v>
-      </c>
-      <c r="H20" s="1">
-        <v>600000</v>
-      </c>
-      <c r="J20" s="7">
-        <v>0.873</v>
-      </c>
-      <c r="N20" s="3" t="s">
-        <v>1592</v>
-      </c>
-    </row>
-    <row r="21" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="1" t="s">
-        <v>1479</v>
-      </c>
-      <c r="B21" s="1">
-        <v>64</v>
-      </c>
-      <c r="C21" s="1" t="s">
-        <v>951</v>
-      </c>
-      <c r="D21" s="1">
-        <v>2021</v>
-      </c>
-      <c r="E21" t="s">
-        <v>1482</v>
-      </c>
-      <c r="F21" s="1">
-        <v>2010</v>
-      </c>
-      <c r="G21" s="1">
-        <v>2013</v>
-      </c>
-      <c r="H21" s="1">
-        <v>2000000</v>
-      </c>
-      <c r="M21">
-        <v>0.92</v>
-      </c>
-      <c r="N21" s="3" t="s">
-        <v>1592</v>
-      </c>
-      <c r="O21" t="s">
-        <v>1477</v>
-      </c>
-    </row>
-    <row r="22" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="1" t="s">
-        <v>1480</v>
-      </c>
-      <c r="B22" s="1">
-        <v>64</v>
-      </c>
-      <c r="C22" s="1" t="s">
-        <v>951</v>
-      </c>
-      <c r="D22" s="1">
-        <v>2021</v>
-      </c>
-      <c r="E22" t="s">
-        <v>1483</v>
-      </c>
-      <c r="F22" s="1">
-        <v>2010</v>
-      </c>
-      <c r="G22" s="1">
-        <v>2013</v>
-      </c>
-      <c r="H22" s="1">
-        <v>2000000</v>
-      </c>
-      <c r="M22">
-        <v>0.82</v>
-      </c>
-      <c r="N22" s="3" t="s">
-        <v>1592</v>
-      </c>
-      <c r="O22" t="s">
-        <v>1486</v>
-      </c>
-    </row>
-    <row r="23" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="1" t="s">
-        <v>1481</v>
-      </c>
-      <c r="B23" s="1">
-        <v>64</v>
-      </c>
-      <c r="C23" s="1" t="s">
-        <v>951</v>
-      </c>
-      <c r="D23" s="1">
-        <v>2021</v>
-      </c>
-      <c r="E23" t="s">
-        <v>1484</v>
-      </c>
-      <c r="F23" s="1">
-        <v>2010</v>
-      </c>
-      <c r="G23" s="1">
-        <v>2013</v>
-      </c>
-      <c r="H23" s="1">
-        <v>2000000</v>
-      </c>
-      <c r="M23">
-        <v>0.85</v>
-      </c>
-      <c r="N23" s="3" t="s">
-        <v>1592</v>
-      </c>
-    </row>
-    <row r="24" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A24" s="1" t="s">
-        <v>1394</v>
-      </c>
-      <c r="B24" s="1">
-        <v>67</v>
-      </c>
-      <c r="C24" s="1" t="s">
-        <v>277</v>
-      </c>
-      <c r="D24" s="1">
-        <v>2007</v>
-      </c>
-      <c r="E24" s="1" t="s">
-        <v>1396</v>
-      </c>
-      <c r="F24" s="1">
-        <v>1992</v>
-      </c>
-      <c r="G24" s="1">
-        <v>2001</v>
-      </c>
-      <c r="H24" s="1">
-        <v>3000000</v>
-      </c>
-      <c r="I24" t="s">
-        <v>1390</v>
-      </c>
-      <c r="K24" t="s">
-        <v>1390</v>
-      </c>
-      <c r="N24" s="3" t="s">
-        <v>1592</v>
-      </c>
-      <c r="O24" t="s">
-        <v>1391</v>
-      </c>
-    </row>
-    <row r="25" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A25" s="1" t="s">
-        <v>1393</v>
-      </c>
-      <c r="B25" s="1">
-        <v>67</v>
-      </c>
-      <c r="C25" s="1" t="s">
-        <v>277</v>
-      </c>
-      <c r="D25" s="1">
-        <v>2007</v>
-      </c>
-      <c r="E25" s="1" t="s">
-        <v>1397</v>
-      </c>
-      <c r="F25" s="1">
-        <v>1992</v>
-      </c>
-      <c r="G25" s="1">
-        <v>2001</v>
-      </c>
-      <c r="H25" s="1">
-        <v>3000000</v>
-      </c>
-      <c r="I25" t="s">
-        <v>1390</v>
-      </c>
-      <c r="K25" t="s">
-        <v>1390</v>
-      </c>
-      <c r="N25" s="3" t="s">
-        <v>1592</v>
-      </c>
-      <c r="O25" t="s">
-        <v>1391</v>
-      </c>
-    </row>
-    <row r="26" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A26" s="1" t="s">
-        <v>1395</v>
-      </c>
-      <c r="B26" s="1">
-        <v>67</v>
-      </c>
-      <c r="C26" s="1" t="s">
-        <v>277</v>
-      </c>
-      <c r="D26" s="1">
-        <v>2007</v>
-      </c>
-      <c r="E26" s="1" t="s">
-        <v>1398</v>
-      </c>
-      <c r="F26" s="1">
-        <v>1992</v>
-      </c>
-      <c r="G26" s="1">
-        <v>2001</v>
-      </c>
-      <c r="H26" s="1">
-        <v>3000000</v>
-      </c>
-      <c r="I26" t="s">
-        <v>1390</v>
-      </c>
-      <c r="K26" t="s">
-        <v>1390</v>
-      </c>
-      <c r="N26" s="3" t="s">
-        <v>1592</v>
-      </c>
-      <c r="O26" t="s">
-        <v>1391</v>
-      </c>
-    </row>
-    <row r="27" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A27" s="1" t="s">
-        <v>1402</v>
-      </c>
-      <c r="B27" s="1">
-        <v>71</v>
-      </c>
-      <c r="C27" s="1" t="s">
-        <v>1405</v>
-      </c>
-      <c r="D27" s="1">
-        <v>2000</v>
-      </c>
-      <c r="E27" s="1" t="s">
-        <v>1403</v>
-      </c>
-      <c r="F27" s="1">
-        <v>1995</v>
-      </c>
-      <c r="G27" s="1">
-        <v>1998</v>
-      </c>
-      <c r="H27" s="1">
-        <v>1250000</v>
-      </c>
-      <c r="I27">
-        <f>(0.875+0.75+0.6667)/3</f>
-        <v>0.76390000000000002</v>
-      </c>
-      <c r="K27" s="7">
-        <f>(0.171 +0.201 + 0.256)/3</f>
-        <v>0.20933333333333334</v>
-      </c>
-      <c r="N27" s="3" t="s">
-        <v>1592</v>
-      </c>
-      <c r="O27" t="s">
-        <v>1404</v>
-      </c>
-    </row>
-    <row r="28" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A28" s="1" t="s">
-        <v>1471</v>
-      </c>
-      <c r="B28" s="1">
-        <v>79</v>
-      </c>
-      <c r="C28" s="1" t="s">
-        <v>1303</v>
-      </c>
-      <c r="D28" s="1">
-        <v>1997</v>
-      </c>
-      <c r="E28" t="s">
-        <v>1474</v>
-      </c>
-      <c r="F28" s="1">
-        <v>1991</v>
-      </c>
-      <c r="G28" s="1">
-        <v>1994</v>
-      </c>
-      <c r="H28" s="1">
-        <v>800000</v>
-      </c>
-      <c r="I28" s="1">
-        <v>0.90700000000000003</v>
-      </c>
-      <c r="K28" s="1">
-        <f xml:space="preserve"> (0.1 + 0.218)/2</f>
-        <v>0.159</v>
-      </c>
-      <c r="N28" s="3" t="s">
-        <v>1592</v>
-      </c>
-      <c r="O28" t="s">
-        <v>1476</v>
-      </c>
-    </row>
-    <row r="29" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A29" s="1" t="s">
-        <v>1472</v>
-      </c>
-      <c r="B29" s="1">
-        <v>79</v>
-      </c>
-      <c r="C29" s="1" t="s">
-        <v>1303</v>
-      </c>
-      <c r="D29" s="1">
-        <v>1997</v>
-      </c>
-      <c r="E29" t="s">
-        <v>1473</v>
-      </c>
-      <c r="F29" s="1">
-        <v>1991</v>
-      </c>
-      <c r="G29" s="1">
-        <v>1994</v>
-      </c>
-      <c r="H29" s="1">
-        <v>800000</v>
-      </c>
-      <c r="I29" s="1">
-        <v>0.84899999999999998</v>
-      </c>
-      <c r="K29" s="1">
-        <f>(0.283 + 0.22)/2</f>
-        <v>0.2515</v>
-      </c>
-      <c r="N29" s="3" t="s">
-        <v>1592</v>
-      </c>
-      <c r="O29" t="s">
-        <v>1475</v>
-      </c>
-    </row>
-    <row r="30" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A30" s="1" t="s">
-        <v>1501</v>
-      </c>
-      <c r="B30" s="1">
-        <v>80</v>
-      </c>
-      <c r="C30" s="1" t="s">
-        <v>1244</v>
-      </c>
-      <c r="D30" s="1">
-        <v>1998</v>
-      </c>
-      <c r="E30" t="s">
-        <v>1511</v>
-      </c>
-      <c r="F30" s="1">
-        <v>1986</v>
-      </c>
-      <c r="G30" s="1">
-        <v>1992</v>
-      </c>
-      <c r="H30" s="1">
-        <v>2000000</v>
-      </c>
-      <c r="N30" s="3" t="s">
-        <v>1592</v>
-      </c>
-      <c r="O30" t="s">
-        <v>1512</v>
-      </c>
-    </row>
-    <row r="31" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A31" s="1" t="s">
-        <v>1502</v>
-      </c>
-      <c r="B31" s="1">
-        <v>80</v>
-      </c>
-      <c r="C31" s="1" t="s">
-        <v>1244</v>
-      </c>
-      <c r="D31" s="1">
-        <v>1998</v>
-      </c>
-      <c r="E31" t="s">
-        <v>1508</v>
-      </c>
-      <c r="F31" s="1">
-        <v>1987</v>
-      </c>
-      <c r="G31" s="1">
-        <v>1987</v>
-      </c>
-      <c r="H31" s="1">
-        <v>2000000</v>
-      </c>
-      <c r="N31" s="3" t="s">
-        <v>1592</v>
-      </c>
-      <c r="O31" t="s">
-        <v>1513</v>
-      </c>
-    </row>
-    <row r="32" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A32" s="1" t="s">
-        <v>1503</v>
-      </c>
-      <c r="B32" s="1">
-        <v>80</v>
-      </c>
-      <c r="C32" s="1" t="s">
-        <v>1244</v>
-      </c>
-      <c r="D32" s="1">
-        <v>1998</v>
-      </c>
-      <c r="E32" t="s">
-        <v>1509</v>
-      </c>
-      <c r="F32" s="1">
-        <v>1987</v>
-      </c>
-      <c r="G32" s="1">
-        <v>1987</v>
-      </c>
-      <c r="H32" s="1">
-        <v>2000000</v>
-      </c>
-      <c r="N32" s="3" t="s">
-        <v>1592</v>
-      </c>
-      <c r="O32" t="s">
-        <v>1513</v>
-      </c>
-    </row>
-    <row r="33" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A33" s="1" t="s">
-        <v>1504</v>
-      </c>
-      <c r="B33" s="1">
-        <v>80</v>
-      </c>
-      <c r="C33" s="1" t="s">
-        <v>1244</v>
-      </c>
-      <c r="D33" s="1">
-        <v>1998</v>
-      </c>
-      <c r="E33" t="s">
-        <v>1510</v>
-      </c>
-      <c r="F33" s="1">
-        <v>1987</v>
-      </c>
-      <c r="G33" s="1">
-        <v>1987</v>
-      </c>
-      <c r="H33" s="1">
-        <v>2000000</v>
-      </c>
-      <c r="N33" s="3" t="s">
-        <v>1592</v>
-      </c>
-      <c r="O33" t="s">
-        <v>1513</v>
-      </c>
-    </row>
-    <row r="34" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A34" s="1" t="s">
-        <v>1505</v>
-      </c>
-      <c r="B34" s="1">
-        <v>80</v>
-      </c>
-      <c r="C34" s="1" t="s">
-        <v>1244</v>
-      </c>
-      <c r="D34" s="1">
-        <v>1998</v>
-      </c>
-      <c r="E34" t="s">
-        <v>1434</v>
-      </c>
-      <c r="F34" s="1">
-        <v>1985</v>
-      </c>
-      <c r="G34" s="1">
-        <v>1995</v>
-      </c>
-      <c r="H34" s="1">
-        <v>2000000</v>
-      </c>
-      <c r="N34" s="3" t="s">
-        <v>1592</v>
-      </c>
-      <c r="O34" t="s">
-        <v>1512</v>
-      </c>
-    </row>
-    <row r="35" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A35" s="1" t="s">
-        <v>1506</v>
-      </c>
-      <c r="B35" s="1">
-        <v>80</v>
-      </c>
-      <c r="C35" s="1" t="s">
-        <v>1244</v>
-      </c>
-      <c r="D35" s="1">
-        <v>1998</v>
-      </c>
-      <c r="E35" t="s">
-        <v>1507</v>
-      </c>
-      <c r="F35" s="1">
-        <v>1989</v>
-      </c>
-      <c r="G35" s="1">
-        <v>1989</v>
-      </c>
-      <c r="H35" s="1">
-        <v>2000000</v>
-      </c>
-      <c r="N35" s="3" t="s">
-        <v>1592</v>
-      </c>
-      <c r="O35" t="s">
-        <v>1513</v>
-      </c>
-    </row>
-    <row r="36" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A36" s="1" t="s">
-        <v>1424</v>
-      </c>
-      <c r="B36" s="1">
-        <v>83</v>
-      </c>
-      <c r="C36" s="1" t="s">
-        <v>1425</v>
-      </c>
-      <c r="D36" s="1">
-        <v>2012</v>
-      </c>
-      <c r="E36" t="s">
-        <v>1427</v>
-      </c>
-      <c r="F36" s="1">
-        <v>2004</v>
-      </c>
-      <c r="G36" s="1">
-        <v>2009</v>
-      </c>
-      <c r="H36">
-        <v>400000</v>
-      </c>
-      <c r="I36" s="1">
-        <v>0.74</v>
-      </c>
-      <c r="J36" s="16">
-        <v>0.87</v>
-      </c>
-      <c r="N36" s="3" t="s">
-        <v>1592</v>
-      </c>
-      <c r="O36" t="s">
-        <v>1428</v>
-      </c>
-    </row>
-    <row r="37" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A37" s="1" t="s">
-        <v>1423</v>
-      </c>
-      <c r="B37" s="1">
-        <v>83</v>
-      </c>
-      <c r="C37" s="1" t="s">
-        <v>1425</v>
-      </c>
-      <c r="D37" s="1">
-        <v>2012</v>
-      </c>
-      <c r="E37" t="s">
-        <v>1426</v>
-      </c>
-      <c r="F37" s="1">
-        <v>2004</v>
-      </c>
-      <c r="G37" s="1">
-        <v>2009</v>
-      </c>
-      <c r="H37" s="1">
-        <v>400000</v>
-      </c>
-      <c r="I37" s="1">
-        <v>0.74</v>
-      </c>
-      <c r="J37" s="16">
-        <v>0.93</v>
-      </c>
-      <c r="N37" s="3" t="s">
-        <v>1592</v>
-      </c>
-      <c r="O37" t="s">
-        <v>1428</v>
-      </c>
-    </row>
-    <row r="38" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A38" s="1" t="s">
-        <v>1455</v>
-      </c>
-      <c r="B38" s="1">
-        <v>86</v>
-      </c>
-      <c r="C38" s="1" t="s">
-        <v>1456</v>
-      </c>
-      <c r="D38" s="1">
-        <v>2019</v>
-      </c>
-      <c r="E38" t="s">
-        <v>882</v>
-      </c>
-      <c r="F38" s="1">
-        <v>2014</v>
-      </c>
-      <c r="G38" s="1">
-        <v>2018</v>
-      </c>
-      <c r="H38" s="1">
-        <v>1500000</v>
-      </c>
-      <c r="I38" s="1">
-        <v>0.89500000000000002</v>
-      </c>
-      <c r="J38" s="16">
-        <v>1.0001</v>
-      </c>
-      <c r="K38" s="1">
-        <v>0.19500000000000001</v>
-      </c>
-      <c r="M38">
-        <v>0.93300000000000005</v>
-      </c>
-      <c r="N38" s="3" t="s">
-        <v>1592</v>
-      </c>
-    </row>
-    <row r="39" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A39" s="1" t="s">
-        <v>1606</v>
-      </c>
-      <c r="B39" s="1">
-        <v>87</v>
-      </c>
-      <c r="C39" s="1" t="s">
-        <v>1406</v>
-      </c>
-      <c r="D39" s="1">
-        <v>2013</v>
-      </c>
-      <c r="E39" s="1"/>
-      <c r="F39" s="1">
-        <v>2008</v>
-      </c>
-      <c r="G39" s="1">
-        <v>2012</v>
-      </c>
-      <c r="H39" t="s">
-        <v>158</v>
-      </c>
-      <c r="I39" s="1">
-        <v>0.77600000000000002</v>
-      </c>
-      <c r="J39" s="7">
-        <v>0.84199999999999997</v>
-      </c>
-      <c r="K39">
-        <v>0.17100000000000001</v>
-      </c>
-      <c r="N39" s="3" t="s">
-        <v>1592</v>
-      </c>
-    </row>
-    <row r="40" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A40" s="1" t="s">
-        <v>1407</v>
-      </c>
-      <c r="B40" s="1">
-        <v>87</v>
-      </c>
-      <c r="C40" s="1" t="s">
-        <v>1406</v>
-      </c>
-      <c r="D40" s="1">
-        <v>2013</v>
-      </c>
-      <c r="F40" s="1">
-        <v>2002</v>
-      </c>
-      <c r="G40" s="1">
-        <v>2012</v>
-      </c>
-      <c r="H40" t="s">
-        <v>158</v>
-      </c>
-      <c r="I40" s="1">
-        <v>0.83099999999999996</v>
-      </c>
-      <c r="J40" s="7">
-        <v>0.88700000000000001</v>
-      </c>
-      <c r="K40">
-        <v>0.13400000000000001</v>
-      </c>
-      <c r="N40" s="3" t="s">
-        <v>1592</v>
-      </c>
-      <c r="O40" t="s">
-        <v>1420</v>
-      </c>
-    </row>
-    <row r="41" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A41" s="1" t="s">
-        <v>1408</v>
-      </c>
-      <c r="B41" s="1">
-        <v>87</v>
-      </c>
-      <c r="C41" s="1" t="s">
-        <v>1406</v>
-      </c>
-      <c r="D41" s="1">
-        <v>2013</v>
-      </c>
-      <c r="F41" s="1">
-        <v>1998</v>
-      </c>
-      <c r="G41" s="1">
-        <v>2012</v>
-      </c>
-      <c r="H41" t="s">
-        <v>158</v>
-      </c>
-      <c r="I41" s="1">
-        <v>0.81399999999999995</v>
-      </c>
-      <c r="J41" s="7">
-        <v>0.85499999999999998</v>
-      </c>
-      <c r="K41">
-        <v>0.1</v>
-      </c>
-      <c r="N41" s="3" t="s">
-        <v>1592</v>
-      </c>
-      <c r="O41" t="s">
-        <v>1420</v>
-      </c>
-    </row>
-    <row r="42" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A42" s="1" t="s">
-        <v>1409</v>
-      </c>
-      <c r="B42" s="1">
-        <v>87</v>
-      </c>
-      <c r="C42" s="1" t="s">
-        <v>1406</v>
-      </c>
-      <c r="D42" s="1">
-        <v>2013</v>
-      </c>
-      <c r="F42" s="1">
-        <v>1995</v>
-      </c>
-      <c r="G42" s="1">
-        <v>2012</v>
-      </c>
-      <c r="H42" t="s">
-        <v>158</v>
-      </c>
-      <c r="I42" s="1">
-        <v>0.85799999999999998</v>
-      </c>
-      <c r="J42" s="7">
-        <v>0.92</v>
-      </c>
-      <c r="K42">
-        <v>0.14399999999999999</v>
-      </c>
-      <c r="N42" s="3" t="s">
-        <v>1592</v>
-      </c>
-      <c r="O42" t="s">
-        <v>1420</v>
-      </c>
-    </row>
-    <row r="43" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A43" s="1" t="s">
-        <v>1410</v>
-      </c>
-      <c r="B43" s="1">
-        <v>87</v>
-      </c>
-      <c r="C43" s="1" t="s">
-        <v>1406</v>
-      </c>
-      <c r="D43" s="1">
-        <v>2013</v>
-      </c>
-      <c r="F43" s="1">
-        <v>1994</v>
-      </c>
-      <c r="G43" s="1">
-        <v>2012</v>
-      </c>
-      <c r="H43" t="s">
-        <v>158</v>
-      </c>
-      <c r="I43" s="1">
-        <v>0.85299999999999998</v>
-      </c>
-      <c r="J43" s="7">
-        <v>0.91600000000000004</v>
-      </c>
-      <c r="K43">
-        <v>0.14699999999999999</v>
-      </c>
-      <c r="N43" s="3" t="s">
-        <v>1592</v>
-      </c>
-      <c r="O43" t="s">
-        <v>1420</v>
-      </c>
-    </row>
-    <row r="44" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A44" s="1" t="s">
-        <v>1411</v>
-      </c>
-      <c r="B44" s="1">
-        <v>87</v>
-      </c>
-      <c r="C44" s="1" t="s">
-        <v>1406</v>
-      </c>
-      <c r="D44" s="1">
-        <v>2013</v>
-      </c>
-      <c r="F44" s="1">
-        <v>2000</v>
-      </c>
-      <c r="G44" s="1">
-        <v>2012</v>
-      </c>
-      <c r="H44" t="s">
-        <v>158</v>
-      </c>
-      <c r="I44" s="1">
-        <v>0.90100000000000002</v>
-      </c>
-      <c r="J44" s="7">
-        <v>0.97</v>
-      </c>
-      <c r="K44">
-        <v>0.153</v>
-      </c>
-      <c r="N44" s="3" t="s">
-        <v>1592</v>
-      </c>
-      <c r="O44" t="s">
-        <v>1421</v>
-      </c>
-    </row>
-    <row r="45" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A45" s="1" t="s">
-        <v>1412</v>
-      </c>
-      <c r="B45" s="1">
-        <v>87</v>
-      </c>
-      <c r="C45" s="1" t="s">
-        <v>1406</v>
-      </c>
-      <c r="D45" s="1">
-        <v>2013</v>
-      </c>
-      <c r="F45" s="1">
-        <v>1995</v>
-      </c>
-      <c r="G45" s="1">
-        <v>2012</v>
-      </c>
-      <c r="H45" t="s">
-        <v>158</v>
-      </c>
-      <c r="I45" s="1">
-        <v>0.81899999999999995</v>
-      </c>
-      <c r="J45" s="7">
-        <v>0.88400000000000001</v>
-      </c>
-      <c r="K45">
-        <v>0.157</v>
-      </c>
-      <c r="N45" s="3" t="s">
-        <v>1592</v>
-      </c>
-      <c r="O45" t="s">
-        <v>1420</v>
-      </c>
-    </row>
-    <row r="46" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A46" s="1" t="s">
-        <v>1413</v>
-      </c>
-      <c r="B46" s="1">
-        <v>87</v>
-      </c>
-      <c r="C46" s="1" t="s">
-        <v>1406</v>
-      </c>
-      <c r="D46" s="1">
-        <v>2013</v>
-      </c>
-      <c r="F46" s="1">
-        <v>2009</v>
-      </c>
-      <c r="G46" s="1">
-        <v>2012</v>
-      </c>
-      <c r="H46" t="s">
-        <v>158</v>
-      </c>
-      <c r="I46" s="1">
-        <v>0.90300000000000002</v>
-      </c>
-      <c r="J46" s="7">
-        <v>0.98399999999999999</v>
-      </c>
-      <c r="K46">
-        <v>0.17899999999999999</v>
-      </c>
-      <c r="N46" s="3" t="s">
-        <v>1592</v>
-      </c>
-      <c r="O46" t="s">
-        <v>1420</v>
-      </c>
-    </row>
-    <row r="47" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A47" s="1" t="s">
-        <v>1414</v>
-      </c>
-      <c r="B47" s="1">
-        <v>87</v>
-      </c>
-      <c r="C47" s="1" t="s">
-        <v>1406</v>
-      </c>
-      <c r="D47" s="1">
-        <v>2013</v>
-      </c>
-      <c r="F47">
-        <v>1994</v>
-      </c>
-      <c r="G47" s="1">
-        <v>2012</v>
-      </c>
-      <c r="H47" t="s">
-        <v>158</v>
-      </c>
-      <c r="I47" s="1">
-        <v>0.84899999999999998</v>
-      </c>
-      <c r="J47" s="7">
-        <v>0.93300000000000005</v>
-      </c>
-      <c r="K47">
-        <v>0.19800000000000001</v>
-      </c>
-      <c r="N47" s="3" t="s">
-        <v>1592</v>
-      </c>
-      <c r="O47" t="s">
-        <v>1420</v>
-      </c>
-    </row>
-    <row r="48" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A48" s="1" t="s">
-        <v>1415</v>
-      </c>
-      <c r="B48" s="1">
-        <v>87</v>
-      </c>
-      <c r="C48" s="1" t="s">
-        <v>1406</v>
-      </c>
-      <c r="D48" s="1">
-        <v>2013</v>
-      </c>
-      <c r="F48" s="1">
-        <v>2007</v>
-      </c>
-      <c r="G48" s="1">
-        <v>2012</v>
-      </c>
-      <c r="H48" t="s">
-        <v>158</v>
-      </c>
-      <c r="I48" s="1">
-        <v>0.90700000000000003</v>
-      </c>
-      <c r="J48" s="7">
-        <v>1.0009999999999999</v>
-      </c>
-      <c r="K48">
-        <v>0.20599999999999999</v>
-      </c>
-      <c r="N48" s="3" t="s">
-        <v>1592</v>
-      </c>
-      <c r="O48" t="s">
-        <v>1420</v>
-      </c>
-    </row>
-    <row r="49" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A49" s="1" t="s">
-        <v>1416</v>
-      </c>
-      <c r="B49" s="1">
-        <v>87</v>
-      </c>
-      <c r="C49" s="1" t="s">
-        <v>1406</v>
-      </c>
-      <c r="D49" s="1">
-        <v>2013</v>
-      </c>
-      <c r="F49" s="1">
-        <v>2007</v>
-      </c>
-      <c r="G49" s="1">
-        <v>2012</v>
-      </c>
-      <c r="H49" t="s">
-        <v>158</v>
-      </c>
-      <c r="I49" s="1">
-        <v>0.85599999999999998</v>
-      </c>
-      <c r="J49" s="7">
-        <v>0.91500000000000004</v>
-      </c>
-      <c r="K49">
-        <v>0.13600000000000001</v>
-      </c>
-      <c r="N49" s="3" t="s">
-        <v>1592</v>
-      </c>
-      <c r="O49" t="s">
-        <v>1420</v>
-      </c>
-    </row>
-    <row r="50" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A50" s="1" t="s">
-        <v>1417</v>
-      </c>
-      <c r="B50" s="1">
-        <v>87</v>
-      </c>
-      <c r="C50" s="1" t="s">
-        <v>1406</v>
-      </c>
-      <c r="D50" s="1">
-        <v>2013</v>
-      </c>
-      <c r="F50" s="1">
-        <v>1998</v>
-      </c>
-      <c r="G50" s="1">
-        <v>2012</v>
-      </c>
-      <c r="H50" t="s">
-        <v>158</v>
-      </c>
-      <c r="I50" s="1">
-        <v>0.86399999999999999</v>
-      </c>
-      <c r="J50" s="7">
-        <v>0.93899999999999995</v>
-      </c>
-      <c r="K50">
-        <v>0.17299999999999999</v>
-      </c>
-      <c r="N50" s="3" t="s">
-        <v>1592</v>
-      </c>
-      <c r="O50" t="s">
-        <v>1420</v>
-      </c>
-    </row>
-    <row r="51" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A51" s="1" t="s">
-        <v>1418</v>
-      </c>
-      <c r="B51" s="1">
-        <v>87</v>
-      </c>
-      <c r="C51" s="1" t="s">
-        <v>1406</v>
-      </c>
-      <c r="D51" s="1">
-        <v>2013</v>
-      </c>
-      <c r="F51" s="1">
-        <v>1998</v>
-      </c>
-      <c r="G51" s="1">
-        <v>2012</v>
-      </c>
-      <c r="H51" t="s">
-        <v>158</v>
-      </c>
-      <c r="I51" s="1">
-        <v>0.81699999999999995</v>
-      </c>
-      <c r="J51" s="7">
-        <v>0.89200000000000002</v>
-      </c>
-      <c r="K51">
-        <v>0.184</v>
-      </c>
-      <c r="N51" s="3" t="s">
-        <v>1592</v>
-      </c>
-      <c r="O51" t="s">
-        <v>1420</v>
-      </c>
-    </row>
-    <row r="52" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A52" s="5" t="s">
-        <v>1384</v>
-      </c>
-      <c r="B52" s="1">
-        <v>91</v>
-      </c>
-      <c r="C52" s="1" t="s">
-        <v>1346</v>
-      </c>
-      <c r="D52" s="1">
-        <v>2007</v>
-      </c>
-      <c r="E52" s="1" t="s">
-        <v>1347</v>
-      </c>
-      <c r="F52" s="1">
-        <v>1998</v>
-      </c>
-      <c r="G52" s="1">
-        <v>2001</v>
-      </c>
-      <c r="H52" s="1">
-        <v>1500000</v>
-      </c>
-      <c r="I52" s="1">
-        <v>0.75</v>
-      </c>
-      <c r="K52" s="1">
-        <v>0.33300000000000002</v>
-      </c>
-      <c r="L52" s="1"/>
-      <c r="M52" s="1"/>
-      <c r="N52" s="3" t="s">
-        <v>1592</v>
-      </c>
-    </row>
-    <row r="53" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A53" s="5" t="s">
-        <v>1385</v>
-      </c>
-      <c r="B53" s="1">
-        <v>91</v>
-      </c>
-      <c r="C53" s="1" t="s">
-        <v>1346</v>
-      </c>
-      <c r="D53" s="1">
-        <v>2007</v>
-      </c>
-      <c r="E53" s="1" t="s">
-        <v>1348</v>
-      </c>
-      <c r="F53" s="1">
-        <v>1998</v>
-      </c>
-      <c r="G53" s="1">
-        <v>2001</v>
-      </c>
-      <c r="H53" s="1">
-        <v>1500000</v>
-      </c>
-      <c r="I53" s="1">
-        <v>0.87</v>
-      </c>
-      <c r="K53" s="1">
-        <v>0.20899999999999999</v>
-      </c>
-      <c r="L53" s="1"/>
-      <c r="M53" s="1"/>
-      <c r="N53" s="3" t="s">
-        <v>1592</v>
-      </c>
-    </row>
-    <row r="54" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A54" s="5" t="s">
-        <v>1386</v>
-      </c>
-      <c r="B54" s="1">
-        <v>91</v>
-      </c>
-      <c r="C54" s="1" t="s">
-        <v>1346</v>
-      </c>
-      <c r="D54" s="1">
-        <v>2007</v>
-      </c>
-      <c r="E54" s="1" t="s">
-        <v>1349</v>
-      </c>
-      <c r="F54" s="1">
-        <v>1998</v>
-      </c>
-      <c r="G54" s="1">
-        <v>2001</v>
-      </c>
-      <c r="H54" s="1">
-        <v>1500000</v>
-      </c>
-      <c r="I54" s="1">
-        <v>0.82</v>
-      </c>
-      <c r="K54" s="1">
-        <v>0.38200000000000001</v>
-      </c>
-      <c r="L54" s="1"/>
-      <c r="M54" s="1"/>
-      <c r="N54" s="3" t="s">
-        <v>1592</v>
-      </c>
-    </row>
-    <row r="55" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A55" s="1" t="s">
-        <v>1459</v>
-      </c>
-      <c r="B55" s="1">
-        <v>96</v>
-      </c>
-      <c r="C55" s="1" t="s">
-        <v>1262</v>
-      </c>
-      <c r="D55" s="1">
-        <v>2011</v>
-      </c>
-      <c r="E55" t="s">
-        <v>1460</v>
-      </c>
-      <c r="F55" s="1">
-        <v>2004</v>
-      </c>
-      <c r="G55" s="1">
-        <v>2006</v>
-      </c>
-      <c r="H55" s="1">
-        <v>800000</v>
-      </c>
-      <c r="M55" t="s">
-        <v>1457</v>
-      </c>
-      <c r="N55" s="3" t="s">
-        <v>1592</v>
-      </c>
-      <c r="O55" t="s">
-        <v>1458</v>
-      </c>
-    </row>
-    <row r="56" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A56" s="1" t="s">
-        <v>1387</v>
-      </c>
-      <c r="B56" s="1">
-        <v>97</v>
-      </c>
-      <c r="C56" s="1" t="s">
-        <v>1346</v>
-      </c>
-      <c r="D56" s="1">
-        <v>2008</v>
-      </c>
-      <c r="E56" s="1" t="s">
-        <v>1389</v>
-      </c>
-      <c r="F56" s="1">
-        <v>1999</v>
-      </c>
-      <c r="G56" s="1">
-        <v>2005</v>
-      </c>
-      <c r="H56" s="1">
-        <v>400000</v>
-      </c>
-      <c r="I56" t="s">
-        <v>1388</v>
-      </c>
-      <c r="N56" s="3" t="s">
-        <v>1592</v>
-      </c>
-    </row>
-    <row r="57" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A57" s="1" t="s">
-        <v>1462</v>
-      </c>
-      <c r="B57" s="1">
-        <v>98</v>
-      </c>
-      <c r="C57" s="1" t="s">
-        <v>1463</v>
-      </c>
-      <c r="D57" s="1">
-        <v>2017</v>
-      </c>
-      <c r="E57" t="s">
-        <v>1464</v>
-      </c>
-      <c r="F57" s="1">
-        <v>2004</v>
-      </c>
-      <c r="G57" s="1">
-        <v>2013</v>
-      </c>
-      <c r="H57" s="1">
-        <v>1500000</v>
-      </c>
-      <c r="I57" s="1">
-        <v>0.85399999999999998</v>
-      </c>
-      <c r="J57" s="16">
-        <v>0.96799999999999997</v>
-      </c>
-      <c r="K57" s="1">
-        <v>0.22600000000000001</v>
-      </c>
-      <c r="N57" s="3" t="s">
-        <v>1592</v>
-      </c>
-      <c r="O57" t="s">
-        <v>1465</v>
-      </c>
-    </row>
-    <row r="58" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A58" s="1" t="s">
-        <v>1466</v>
-      </c>
-      <c r="B58" s="1">
-        <v>98</v>
-      </c>
-      <c r="C58" s="1" t="s">
-        <v>1463</v>
-      </c>
-      <c r="D58" s="1">
-        <v>2017</v>
-      </c>
-      <c r="E58" t="s">
-        <v>1467</v>
-      </c>
-      <c r="F58" s="1">
-        <v>2004</v>
-      </c>
-      <c r="G58" s="1">
-        <v>2013</v>
-      </c>
-      <c r="H58" s="1">
-        <v>1500000</v>
-      </c>
-      <c r="I58" s="1">
-        <v>0.88500000000000001</v>
-      </c>
-      <c r="J58" s="16">
-        <v>1.0149999999999999</v>
-      </c>
-      <c r="K58" s="1">
-        <v>0.24299999999999999</v>
-      </c>
-      <c r="N58" s="3" t="s">
-        <v>1592</v>
-      </c>
-      <c r="O58" t="s">
-        <v>1468</v>
-      </c>
-    </row>
-    <row r="59" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A59" s="1" t="s">
-        <v>1469</v>
-      </c>
-      <c r="B59" s="1">
-        <v>98</v>
-      </c>
-      <c r="C59" s="1" t="s">
-        <v>1463</v>
-      </c>
-      <c r="D59" s="1">
-        <v>2017</v>
-      </c>
-      <c r="E59" t="s">
-        <v>1470</v>
-      </c>
-      <c r="F59" s="1">
-        <v>2004</v>
-      </c>
-      <c r="G59" s="1">
-        <v>2013</v>
-      </c>
-      <c r="H59" s="1">
-        <v>1500000</v>
-      </c>
-      <c r="I59" s="1">
-        <v>0.85399999999999998</v>
-      </c>
-      <c r="J59" s="16">
-        <v>0.94899999999999995</v>
-      </c>
-      <c r="K59" s="1">
-        <v>0.1845</v>
-      </c>
-      <c r="N59" s="3" t="s">
-        <v>1592</v>
-      </c>
-    </row>
-    <row r="60" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A60" s="1" t="s">
-        <v>1450</v>
-      </c>
-      <c r="B60" s="1">
-        <v>101</v>
-      </c>
-      <c r="C60" s="1" t="s">
-        <v>1239</v>
-      </c>
-      <c r="D60" s="1">
-        <v>2003</v>
-      </c>
-      <c r="E60" t="s">
-        <v>1451</v>
-      </c>
-      <c r="F60" s="1">
-        <v>1994</v>
-      </c>
-      <c r="G60" s="1">
-        <v>1997</v>
-      </c>
-      <c r="H60" s="1">
-        <v>200000</v>
-      </c>
-      <c r="I60" s="1">
-        <v>0.88</v>
-      </c>
-      <c r="K60" s="1">
-        <v>0.24</v>
-      </c>
-      <c r="M60" s="1">
-        <v>0.96</v>
-      </c>
-      <c r="N60" s="3" t="s">
-        <v>1592</v>
-      </c>
-      <c r="O60" t="s">
-        <v>1453</v>
-      </c>
-    </row>
-    <row r="61" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A61" s="1" t="s">
-        <v>1400</v>
-      </c>
-      <c r="B61" s="1">
-        <v>103</v>
-      </c>
-      <c r="C61" s="1" t="s">
-        <v>1399</v>
-      </c>
-      <c r="D61" s="1">
-        <v>2020</v>
-      </c>
-      <c r="E61" s="1" t="s">
-        <v>1485</v>
-      </c>
-      <c r="F61" s="1">
-        <v>2010</v>
-      </c>
-      <c r="G61" s="1">
-        <v>2014</v>
-      </c>
-      <c r="H61" s="1">
-        <v>1500000</v>
-      </c>
-      <c r="I61" s="1">
-        <v>0.76</v>
-      </c>
-      <c r="N61" s="3" t="s">
-        <v>1592</v>
-      </c>
-      <c r="O61" t="s">
-        <v>1478</v>
-      </c>
-    </row>
-    <row r="62" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A62" s="1" t="s">
-        <v>1401</v>
-      </c>
-      <c r="B62" s="1">
-        <v>103</v>
-      </c>
-      <c r="C62" s="1" t="s">
-        <v>1399</v>
-      </c>
-      <c r="D62" s="1">
-        <v>2020</v>
-      </c>
-      <c r="E62" s="1" t="s">
-        <v>1483</v>
-      </c>
-      <c r="F62" s="1">
-        <v>2010</v>
-      </c>
-      <c r="G62" s="1">
-        <v>2014</v>
-      </c>
-      <c r="H62" s="1">
-        <v>1500000</v>
-      </c>
-      <c r="I62" s="1">
-        <v>0.9</v>
-      </c>
-      <c r="N62" s="3" t="s">
-        <v>1592</v>
-      </c>
-    </row>
-    <row r="63" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A63" s="1" t="s">
-        <v>1498</v>
-      </c>
-      <c r="B63" s="1">
-        <v>112</v>
-      </c>
-      <c r="C63" s="1" t="s">
-        <v>207</v>
-      </c>
-      <c r="D63" s="1">
-        <v>2000</v>
-      </c>
-      <c r="E63" t="s">
-        <v>1499</v>
-      </c>
-      <c r="F63" s="1">
-        <v>1995</v>
-      </c>
-      <c r="G63" s="1">
-        <v>1997</v>
-      </c>
-      <c r="H63" s="1">
-        <v>700000</v>
-      </c>
-      <c r="I63" s="1">
-        <v>0.9</v>
-      </c>
-      <c r="J63" s="16">
-        <v>1.19</v>
-      </c>
-      <c r="K63" s="1">
-        <v>0.65</v>
-      </c>
-      <c r="N63" s="3" t="s">
-        <v>1592</v>
-      </c>
-    </row>
-    <row r="64" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A64" s="1" t="s">
-        <v>1523</v>
-      </c>
-      <c r="B64" s="1">
-        <v>113</v>
-      </c>
-      <c r="C64" s="1" t="s">
-        <v>824</v>
-      </c>
-      <c r="D64" s="1">
-        <v>1992</v>
-      </c>
-      <c r="E64" t="s">
-        <v>1525</v>
-      </c>
-      <c r="F64" s="1">
-        <v>1984</v>
-      </c>
-      <c r="G64" s="1">
-        <v>1989</v>
-      </c>
-      <c r="H64" s="1">
-        <v>500000</v>
-      </c>
-      <c r="I64" s="1">
-        <v>0.92</v>
-      </c>
-      <c r="J64" s="16">
-        <v>0.754</v>
-      </c>
-      <c r="K64" s="1">
-        <v>0.28999999999999998</v>
-      </c>
-      <c r="L64" s="1">
-        <v>0.08</v>
-      </c>
-      <c r="M64" s="1">
-        <v>0.94</v>
-      </c>
-      <c r="N64" s="3" t="s">
-        <v>1037</v>
-      </c>
-      <c r="O64" t="s">
-        <v>1528</v>
-      </c>
-    </row>
-    <row r="65" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A65" s="1" t="s">
-        <v>1524</v>
-      </c>
-      <c r="B65" s="1">
-        <v>113</v>
-      </c>
-      <c r="C65" s="1" t="s">
-        <v>824</v>
-      </c>
-      <c r="D65" s="1">
-        <v>1992</v>
-      </c>
-      <c r="E65" t="s">
-        <v>1526</v>
-      </c>
-      <c r="F65" s="1">
-        <v>1984</v>
-      </c>
-      <c r="G65" s="1">
-        <v>1989</v>
-      </c>
-      <c r="H65" s="1">
-        <v>500000</v>
-      </c>
-      <c r="I65" s="1">
-        <v>0.71</v>
-      </c>
-      <c r="J65" s="16">
-        <v>1.04</v>
-      </c>
-      <c r="K65" s="1">
-        <v>0.18099999999999999</v>
-      </c>
-      <c r="L65" s="1">
-        <v>0.28999999999999998</v>
-      </c>
-      <c r="M65">
-        <v>0.94</v>
-      </c>
-      <c r="N65" s="3" t="s">
-        <v>1037</v>
-      </c>
-      <c r="O65" t="s">
-        <v>1529</v>
-      </c>
-    </row>
-    <row r="66" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A66" s="1" t="s">
-        <v>1535</v>
-      </c>
-      <c r="B66" s="1">
-        <v>92</v>
-      </c>
-      <c r="C66" s="1" t="s">
-        <v>1272</v>
-      </c>
-      <c r="D66" s="1">
-        <v>1998</v>
-      </c>
-      <c r="E66" t="s">
-        <v>1540</v>
-      </c>
-      <c r="F66" s="1">
-        <v>1993</v>
-      </c>
-      <c r="G66" s="1">
-        <v>1996</v>
-      </c>
-      <c r="H66" s="1">
-        <v>1000000</v>
-      </c>
-      <c r="I66" s="1">
-        <v>0.8</v>
-      </c>
-      <c r="J66" s="16">
-        <v>0.92300000000000004</v>
-      </c>
-      <c r="K66" s="1">
-        <v>0.33</v>
-      </c>
-      <c r="N66" s="3" t="s">
-        <v>1592</v>
-      </c>
-      <c r="O66" t="s">
-        <v>1546</v>
-      </c>
-    </row>
-    <row r="67" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A67" s="1" t="s">
-        <v>1536</v>
-      </c>
-      <c r="B67" s="1">
-        <v>92</v>
-      </c>
-      <c r="C67" s="1" t="s">
-        <v>1272</v>
-      </c>
-      <c r="D67" s="1">
-        <v>1998</v>
-      </c>
-      <c r="E67" t="s">
-        <v>1541</v>
-      </c>
-      <c r="F67" s="1">
-        <v>1994</v>
-      </c>
-      <c r="G67" s="1">
-        <v>1996</v>
-      </c>
-      <c r="H67" s="1">
-        <v>1000000</v>
-      </c>
-      <c r="I67" s="1">
-        <v>0.79</v>
-      </c>
-      <c r="J67" s="16">
-        <v>0.85199999999999998</v>
-      </c>
-      <c r="K67" s="1">
-        <v>0.18</v>
-      </c>
-      <c r="N67" s="3" t="s">
-        <v>1592</v>
-      </c>
-    </row>
-    <row r="68" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A68" s="1" t="s">
-        <v>1537</v>
-      </c>
-      <c r="B68" s="1">
-        <v>92</v>
-      </c>
-      <c r="C68" s="1" t="s">
-        <v>1272</v>
-      </c>
-      <c r="D68" s="1">
-        <v>1998</v>
-      </c>
-      <c r="E68" t="s">
-        <v>1542</v>
-      </c>
-      <c r="F68" s="1">
-        <v>1994</v>
-      </c>
-      <c r="G68" s="1">
-        <v>1996</v>
-      </c>
-      <c r="H68" s="1">
-        <v>1000000</v>
-      </c>
-      <c r="I68" s="1">
-        <v>1</v>
-      </c>
-      <c r="J68" s="16">
-        <v>1.1160000000000001</v>
-      </c>
-      <c r="K68" s="1">
-        <v>0.24</v>
-      </c>
-      <c r="N68" s="3" t="s">
-        <v>1592</v>
-      </c>
-    </row>
-    <row r="69" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A69" s="1" t="s">
-        <v>1538</v>
-      </c>
-      <c r="B69" s="1">
-        <v>92</v>
-      </c>
-      <c r="C69" s="1" t="s">
-        <v>1272</v>
-      </c>
-      <c r="D69" s="1">
-        <v>1998</v>
-      </c>
-      <c r="E69" t="s">
-        <v>1543</v>
-      </c>
-      <c r="F69" s="1">
-        <v>1993</v>
-      </c>
-      <c r="G69" s="1">
-        <v>1996</v>
-      </c>
-      <c r="H69" s="1">
-        <v>1000000</v>
-      </c>
-      <c r="I69" s="1">
-        <v>0.78</v>
-      </c>
-      <c r="J69" s="7">
-        <v>0.91400000000000003</v>
-      </c>
-      <c r="K69" s="1">
-        <v>0.37</v>
-      </c>
-      <c r="N69" s="3" t="s">
-        <v>1592</v>
-      </c>
-      <c r="O69" t="s">
-        <v>1545</v>
-      </c>
-    </row>
-    <row r="70" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A70" s="1" t="s">
-        <v>1539</v>
-      </c>
-      <c r="B70" s="1">
-        <v>92</v>
-      </c>
-      <c r="C70" s="1" t="s">
-        <v>1272</v>
-      </c>
-      <c r="D70" s="1">
-        <v>1998</v>
-      </c>
-      <c r="E70" t="s">
-        <v>1544</v>
-      </c>
-      <c r="F70" s="1">
-        <v>1994</v>
-      </c>
-      <c r="G70" s="1">
-        <v>1996</v>
-      </c>
-      <c r="H70" s="1">
-        <v>1000000</v>
-      </c>
-      <c r="I70" s="1">
-        <v>0.87</v>
-      </c>
-      <c r="J70" s="16">
-        <v>0.98</v>
-      </c>
-      <c r="K70" s="1">
-        <v>0.31</v>
-      </c>
-      <c r="N70" s="3" t="s">
-        <v>1592</v>
-      </c>
-    </row>
-    <row r="71" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A71" s="5" t="s">
-        <v>1547</v>
-      </c>
-      <c r="B71" s="5">
-        <v>40</v>
-      </c>
-      <c r="C71" s="5" t="s">
-        <v>475</v>
-      </c>
-      <c r="D71" s="5">
-        <v>2010</v>
-      </c>
-      <c r="E71" t="s">
-        <v>1548</v>
-      </c>
-      <c r="F71" s="5">
-        <v>2001</v>
-      </c>
-      <c r="G71" s="5">
-        <v>2002</v>
-      </c>
-      <c r="H71" s="5">
-        <v>200000</v>
-      </c>
-      <c r="M71">
-        <v>0.91700000000000004</v>
-      </c>
-      <c r="N71" s="3" t="s">
-        <v>1592</v>
-      </c>
-    </row>
-    <row r="72" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A72" s="5" t="s">
-        <v>1559</v>
-      </c>
-      <c r="B72" s="5">
-        <v>115</v>
-      </c>
-      <c r="C72" s="5" t="s">
-        <v>1553</v>
-      </c>
-      <c r="D72" s="5">
-        <v>2013</v>
-      </c>
-      <c r="E72" t="s">
-        <v>1562</v>
-      </c>
-      <c r="F72" s="5">
-        <v>2004</v>
-      </c>
-      <c r="G72" s="5">
-        <v>2013</v>
-      </c>
-      <c r="H72" t="s">
-        <v>158</v>
-      </c>
-      <c r="K72">
-        <v>11.7</v>
-      </c>
-      <c r="N72" s="3" t="s">
-        <v>1592</v>
-      </c>
-      <c r="O72" t="s">
-        <v>1560</v>
-      </c>
-    </row>
-    <row r="73" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A73" s="5" t="s">
-        <v>1561</v>
-      </c>
-      <c r="B73" s="5">
-        <v>115</v>
-      </c>
-      <c r="C73" s="5" t="s">
-        <v>1553</v>
-      </c>
-      <c r="D73" s="5">
-        <v>2013</v>
-      </c>
-      <c r="E73" t="s">
-        <v>1563</v>
-      </c>
-      <c r="F73" s="5">
-        <v>2004</v>
-      </c>
-      <c r="G73" s="5">
-        <v>2013</v>
-      </c>
-      <c r="H73" t="s">
-        <v>158</v>
-      </c>
-      <c r="K73">
-        <v>24.2</v>
-      </c>
-      <c r="N73" s="3" t="s">
-        <v>1592</v>
-      </c>
-      <c r="O73" t="s">
-        <v>1596</v>
-      </c>
-    </row>
-    <row r="74" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A74" s="5" t="s">
-        <v>1564</v>
-      </c>
-      <c r="B74" s="5">
-        <v>115</v>
-      </c>
-      <c r="C74" s="5" t="s">
-        <v>1553</v>
-      </c>
-      <c r="D74" s="5">
-        <v>2013</v>
-      </c>
-      <c r="E74" t="s">
-        <v>1572</v>
-      </c>
-      <c r="F74" s="5">
-        <v>2004</v>
-      </c>
-      <c r="G74" s="5">
-        <v>2013</v>
-      </c>
-      <c r="H74" t="s">
-        <v>158</v>
-      </c>
-      <c r="K74">
-        <v>34.799999999999997</v>
-      </c>
-      <c r="N74" s="3" t="s">
-        <v>1592</v>
-      </c>
-      <c r="O74" t="s">
-        <v>1597</v>
-      </c>
-    </row>
-    <row r="75" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A75" s="5" t="s">
-        <v>1565</v>
-      </c>
-      <c r="B75" s="5">
-        <v>115</v>
-      </c>
-      <c r="C75" t="s">
-        <v>1553</v>
-      </c>
-      <c r="D75" s="5">
-        <v>2013</v>
-      </c>
-      <c r="E75" t="s">
-        <v>1570</v>
-      </c>
-      <c r="F75" s="5">
-        <v>2004</v>
-      </c>
-      <c r="G75" s="5">
-        <v>2013</v>
-      </c>
-      <c r="H75" t="s">
-        <v>158</v>
-      </c>
-      <c r="K75">
-        <v>27.8</v>
-      </c>
-      <c r="N75" s="3" t="s">
-        <v>1592</v>
-      </c>
-      <c r="O75" t="s">
-        <v>1596</v>
-      </c>
-    </row>
-    <row r="76" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A76" s="5" t="s">
-        <v>1566</v>
-      </c>
-      <c r="B76" s="5">
-        <v>115</v>
-      </c>
-      <c r="C76" s="5" t="s">
-        <v>1553</v>
-      </c>
-      <c r="D76" s="5">
-        <v>2013</v>
-      </c>
-      <c r="E76" t="s">
-        <v>1573</v>
-      </c>
-      <c r="F76" s="5">
-        <v>2004</v>
-      </c>
-      <c r="G76" s="5">
-        <v>2013</v>
-      </c>
-      <c r="H76" t="s">
-        <v>158</v>
-      </c>
-      <c r="K76">
-        <v>19.2</v>
-      </c>
-      <c r="N76" s="3" t="s">
-        <v>1592</v>
-      </c>
-      <c r="O76" t="s">
-        <v>1596</v>
-      </c>
-    </row>
-    <row r="77" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A77" s="5" t="s">
-        <v>1567</v>
-      </c>
-      <c r="B77" s="5">
-        <v>115</v>
-      </c>
-      <c r="C77" s="5" t="s">
-        <v>1553</v>
-      </c>
-      <c r="D77" s="5">
-        <v>2013</v>
-      </c>
-      <c r="E77" t="s">
-        <v>1571</v>
-      </c>
-      <c r="F77" s="5">
-        <v>2004</v>
-      </c>
-      <c r="G77" s="5">
-        <v>2013</v>
-      </c>
-      <c r="H77" t="s">
-        <v>158</v>
-      </c>
-      <c r="K77">
-        <v>4.4000000000000004</v>
-      </c>
-      <c r="N77" s="3" t="s">
-        <v>1592</v>
-      </c>
-      <c r="O77" t="s">
-        <v>1596</v>
-      </c>
-    </row>
-    <row r="78" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A78" s="5" t="s">
-        <v>1568</v>
-      </c>
-      <c r="B78" s="5">
-        <v>115</v>
-      </c>
-      <c r="C78" s="5" t="s">
-        <v>1553</v>
-      </c>
-      <c r="D78" s="5">
-        <v>2013</v>
-      </c>
-      <c r="E78" t="s">
-        <v>1569</v>
-      </c>
-      <c r="F78" s="5">
-        <v>2013</v>
-      </c>
-      <c r="G78" s="5">
-        <v>2013</v>
-      </c>
-      <c r="H78" t="s">
-        <v>158</v>
-      </c>
-      <c r="K78">
-        <v>0</v>
-      </c>
-      <c r="N78" s="3" t="s">
-        <v>1592</v>
-      </c>
-      <c r="O78" t="s">
-        <v>1598</v>
-      </c>
-    </row>
-    <row r="79" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A79" s="5" t="s">
-        <v>1581</v>
-      </c>
-      <c r="B79" s="5">
-        <v>116</v>
-      </c>
-      <c r="C79" s="5" t="s">
-        <v>1577</v>
-      </c>
-      <c r="D79" s="5">
-        <v>2017</v>
-      </c>
-      <c r="E79" t="s">
-        <v>1588</v>
-      </c>
-      <c r="F79" s="5">
-        <v>1988</v>
-      </c>
-      <c r="G79" s="5">
-        <v>2015</v>
-      </c>
-      <c r="H79">
-        <v>250000</v>
-      </c>
-      <c r="I79" s="5">
-        <v>0.86</v>
-      </c>
-      <c r="N79" s="3" t="s">
-        <v>1037</v>
-      </c>
-      <c r="O79" t="s">
-        <v>1593</v>
-      </c>
-    </row>
-    <row r="80" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A80" s="5" t="s">
-        <v>1582</v>
-      </c>
-      <c r="B80" s="5">
-        <v>116</v>
-      </c>
-      <c r="C80" s="5" t="s">
-        <v>1577</v>
-      </c>
-      <c r="D80" s="5">
-        <v>2017</v>
-      </c>
-      <c r="E80" t="s">
-        <v>1590</v>
-      </c>
-      <c r="F80" s="5">
-        <v>1999</v>
-      </c>
-      <c r="G80" s="5">
-        <v>2015</v>
-      </c>
-      <c r="H80">
-        <v>250000</v>
-      </c>
-      <c r="I80" s="5">
-        <v>0.97</v>
-      </c>
-      <c r="N80" s="3" t="s">
-        <v>1037</v>
-      </c>
-      <c r="O80" t="s">
-        <v>1593</v>
-      </c>
-    </row>
-    <row r="81" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A81" s="5" t="s">
-        <v>1583</v>
-      </c>
-      <c r="B81" s="5">
-        <v>116</v>
-      </c>
-      <c r="C81" s="5" t="s">
-        <v>1577</v>
-      </c>
-      <c r="D81" s="5">
-        <v>2017</v>
-      </c>
-      <c r="E81" t="s">
-        <v>1589</v>
-      </c>
-      <c r="F81" s="5">
-        <v>1988</v>
-      </c>
-      <c r="G81" s="5">
-        <v>2001</v>
-      </c>
-      <c r="H81">
-        <v>250000</v>
-      </c>
-      <c r="I81" s="5">
-        <v>0.87</v>
-      </c>
-      <c r="N81" s="3" t="s">
-        <v>1037</v>
-      </c>
-      <c r="O81" t="s">
-        <v>1593</v>
-      </c>
-    </row>
-    <row r="82" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A82" s="5" t="s">
-        <v>1574</v>
-      </c>
-      <c r="N82" s="3" t="s">
-        <v>1592</v>
-      </c>
-    </row>
-    <row r="83" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A83" s="5"/>
-    </row>
-  </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:N66">
-    <sortCondition ref="B1"/>
-  </sortState>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="90" verticalDpi="90" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
   <dimension ref="A1:E5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
@@ -19753,64 +16165,64 @@
   <sheetData>
     <row r="1" spans="1:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
-        <v>1350</v>
+        <v>1339</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>1351</v>
+        <v>1340</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>1352</v>
+        <v>1341</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>1353</v>
+        <v>1342</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>1354</v>
+        <v>1343</v>
       </c>
     </row>
     <row r="2" spans="1:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
-        <v>1355</v>
+        <v>1344</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>88</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>1585</v>
+        <v>1398</v>
       </c>
       <c r="D2">
         <v>100</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>1356</v>
+        <v>1345</v>
       </c>
     </row>
     <row r="3" spans="1:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
-        <v>1357</v>
+        <v>1346</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>88</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>1358</v>
+        <v>1347</v>
       </c>
       <c r="D3" s="1">
         <v>100</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>1359</v>
+        <v>1348</v>
       </c>
     </row>
     <row r="4" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
-        <v>1487</v>
+        <v>1354</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>1488</v>
+        <v>1355</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>1489</v>
+        <v>1356</v>
       </c>
       <c r="D4">
         <v>100</v>
@@ -19818,20 +16230,29 @@
     </row>
     <row r="5" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
-        <v>1584</v>
+        <v>1397</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>1586</v>
+        <v>1399</v>
       </c>
       <c r="D5">
         <v>100</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>1587</v>
+        <v>1400</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="90" verticalDpi="90" r:id="rId1"/>
+  <headerFooter>
+    <oddHeader>&amp;R&amp;"Calibri"&amp;12&amp;K000000 UNCLASSIFIED - NON CLASSIFIÉ&amp;1#_x000D_</oddHeader>
+  </headerFooter>
 </worksheet>
+</file>
+
+<file path=docMetadata/LabelInfo.xml><?xml version="1.0" encoding="utf-8"?>
+<clbl:labelList xmlns:clbl="http://schemas.microsoft.com/office/2020/mipLabelMetadata">
+  <clbl:label id="{219619fd-75dc-48cb-820d-8f683a95dd8b}" enabled="1" method="Privileged" siteId="{05c95b33-90ca-49d5-b644-288b930b912b}" contentBits="1" removed="0"/>
+</clbl:labelList>
 </file>